--- a/data/uc_misconduct.xlsx
+++ b/data/uc_misconduct.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VQian/Documents/dailycal-fa18/misconduct/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="13580" yWindow="460" windowWidth="14200" windowHeight="17460" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="complaints" sheetId="1" r:id="rId1"/>
+    <sheet name="stories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="742">
   <si>
     <t>id</t>
   </si>
@@ -1111,9 +1128,6 @@
     <t>UCM 006</t>
   </si>
   <si>
-    <t>M A R C H 2015</t>
-  </si>
-  <si>
     <t>Students</t>
   </si>
   <si>
@@ -2045,9 +2059,6 @@
   </si>
   <si>
     <t>The complainant filed the complaint on behalf of his employees after a March 2013 climate survey in which several employees had alleged that the male respondent was sexually harassing female and male bakery employees with repeated sexual and derogatory comments. The employees alleged that the respondent had joked with other employees about a female employee having stitches put in to tighten her vagina. They also alleged that on another occasion, the respondent had told his co-workers that a dining employee's perfume smelled so good that when he smelled it, he "got so excited and horny" that he "needed" to go into the bathroom and masturbate. Employees also alleged that the respondent bragged about how he could have "sex for hours" and shared that he had acquired a sexually transmitted disease. The respondent denied the allegations.</t>
-  </si>
-  <si>
-    <t>UCSD Title IX Cases 2016-18</t>
   </si>
   <si>
     <t>The complainant filed a complaint alleging that her supervisor had harassed her based on her national origin by regularly mocking her accent. She stated in the complaint that the constant mockery made her cry often at work, and that her hair was falling out due to stress. The complainant also alleged that her supervisor made sexually explicit comments: on one occasion, her supervisor held up a cucumber and allegedly asked the complainant, "How would you like one this big?" The respondent also allegedly made comments on the size of the complainant's breasts and buttocks, allegedly telling the complainant to "get those things out of my face" on a regular basis. Several witnesses stated in the complaint that they had heard the respondent mocking the complainant's accent several times, and one stated that she had witnessed the respondent making sexual innuendos at work. The respondent denied the allegations.</t>
@@ -2162,9 +2173,6 @@
     <t>In July 2017, the respondent received a warning letter mandating sexual harassment prevention training and the presence of a faculty supervisor when meeting with female students</t>
   </si>
   <si>
-    <t>UCR Records Final.pdf</t>
-  </si>
-  <si>
     <t>In October 2016, the UCR Title IX Office initiated an investigation into allegations of sexual harassment and creation of a hostile work environment. The complainant alleged that the respondent called her names such as “boo” and “baby girl,” and grabbed her hand unwarranted while at work, according to the report. The complainant also said she had lost her phone at work, and when she told the respondent, he allegedly asked for a hug and her phone number in return for her phone. As a result, the complainant said she felt uncomfortable going to the stockroom.
  The respondent said he did not know the complainant outside of the workplace and did not remember any of the incidents. He also denied grabbing the complainant’s hand and calling her “boo."</t>
   </si>
@@ -2172,9 +2180,6 @@
     <t>A letter attached to the end of the report indicated that an unnamed employee of UC Riverside Housing, Dining and Residential Services employee was suspended after the allegations of sexual harassment.</t>
   </si>
   <si>
-    <t>UCR Records Final 2.pdf</t>
-  </si>
-  <si>
     <t>name redacted</t>
   </si>
   <si>
@@ -2182,9 +2187,6 @@
   </si>
   <si>
     <t>The respondent resigned prior to termination, according to UCR spokesperson Johnny Cruz.</t>
-  </si>
-  <si>
-    <t>UCSB Investigative Report Redacted.pdf</t>
   </si>
   <si>
     <t>job title redacted</t>
@@ -2219,48 +2221,102 @@
   <si>
     <t>The respondent resigned in lieu of termination Oct 2017</t>
   </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Power in play: How UC employment ranking ties into sex misconduct discipline</t>
+  </si>
+  <si>
+    <t>http://www.dailycal.org/2017/03/03/power-play-uc-employment-ranking-ties-sex-misconduct-discipline/</t>
+  </si>
+  <si>
+    <t>03/??/2015</t>
+  </si>
+  <si>
+    <t>A_UCSD Title IX Cases 2016-18</t>
+  </si>
+  <si>
+    <t>B_UCSD Title IX Cases 2016-18</t>
+  </si>
+  <si>
+    <t>C_UCSD Title IX Cases 2016-18</t>
+  </si>
+  <si>
+    <t>D_UCSD Title IX Cases 2016-18</t>
+  </si>
+  <si>
+    <t>E_UCSD Title IX Cases 2016-18</t>
+  </si>
+  <si>
+    <t>F_UCSD Title IX Cases 2016-18</t>
+  </si>
+  <si>
+    <t>UCR Records Final</t>
+  </si>
+  <si>
+    <t>UCR Records Final 2</t>
+  </si>
+  <si>
+    <t>UCSB Investigative Report Redacted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy-m-d"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF454545"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2304,9 +2360,21 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2320,137 +2388,384 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AI149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="43.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2523,24 +2838,24 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="8">
-        <v>40861.0</v>
+        <v>40861</v>
       </c>
       <c r="F2" s="9">
-        <v>40878.0</v>
+        <v>40878</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>20</v>
@@ -2590,24 +2905,24 @@
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="7">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="8">
-        <v>40861.0</v>
+        <v>40861</v>
       </c>
       <c r="F3" s="9">
-        <v>40878.0</v>
+        <v>40878</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>29</v>
@@ -2657,24 +2972,24 @@
       <c r="AH3" s="11"/>
       <c r="AI3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="8">
-        <v>40689.0</v>
+        <v>40689</v>
       </c>
       <c r="F4" s="12">
-        <v>40806.0</v>
+        <v>40806</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>34</v>
@@ -2722,21 +3037,21 @@
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="7">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="8">
-        <v>40772.0</v>
+        <v>40772</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>40</v>
@@ -2791,21 +3106,21 @@
       <c r="AH5" s="11"/>
       <c r="AI5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="7">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="8">
-        <v>40772.0</v>
+        <v>40772</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>40</v>
@@ -2860,21 +3175,21 @@
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="7">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8">
-        <v>40481.0</v>
+        <v>40481</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>53</v>
@@ -2927,24 +3242,24 @@
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="7">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="14">
-        <v>42042.0</v>
+        <v>42042</v>
       </c>
       <c r="F8" s="15">
-        <v>42279.0</v>
+        <v>42279</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>59</v>
@@ -2996,24 +3311,24 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="18">
-        <v>41171.0</v>
+        <v>41171</v>
       </c>
       <c r="F9" s="19">
-        <v>41275.0</v>
+        <v>41275</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>66</v>
@@ -3065,21 +3380,21 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="18">
-        <v>41457.0</v>
+        <v>41457</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>72</v>
@@ -3134,24 +3449,24 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="18">
-        <v>41870.0</v>
+        <v>41870</v>
       </c>
       <c r="F11" s="19">
-        <v>41908.0</v>
+        <v>41908</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>78</v>
@@ -3203,24 +3518,24 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="18">
-        <v>41893.0</v>
+        <v>41893</v>
       </c>
       <c r="F12" s="19">
-        <v>41963.0</v>
+        <v>41963</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>83</v>
@@ -3272,24 +3587,24 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="18">
-        <v>42220.0</v>
+        <v>42220</v>
       </c>
       <c r="F13" s="19">
-        <v>42319.0</v>
+        <v>42319</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>87</v>
@@ -3341,24 +3656,24 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="18">
-        <v>42237.0</v>
+        <v>42237</v>
       </c>
       <c r="F14" s="19">
-        <v>42332.0</v>
+        <v>42332</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>92</v>
@@ -3410,24 +3725,24 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="18">
-        <v>42261.0</v>
+        <v>42261</v>
       </c>
       <c r="F15" s="19">
-        <v>42354.0</v>
+        <v>42354</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>97</v>
@@ -3479,24 +3794,24 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="18">
-        <v>41072.0</v>
+        <v>41072</v>
       </c>
       <c r="F16" s="19">
-        <v>41306.0</v>
+        <v>41306</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>101</v>
@@ -3548,24 +3863,24 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="18">
-        <v>41394.0</v>
+        <v>41394</v>
       </c>
       <c r="F17" s="19">
-        <v>41936.0</v>
+        <v>41936</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>107</v>
@@ -3617,24 +3932,24 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="18">
-        <v>41843.0</v>
+        <v>41843</v>
       </c>
       <c r="F18" s="19">
-        <v>42177.0</v>
+        <v>42177</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>113</v>
@@ -3686,24 +4001,24 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="18">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F19" s="19">
-        <v>42192.0</v>
+        <v>42192</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>118</v>
@@ -3755,24 +4070,24 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="18">
-        <v>42192.0</v>
+        <v>42192</v>
       </c>
       <c r="F20" s="19">
-        <v>42443.0</v>
+        <v>42443</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>123</v>
@@ -3822,21 +4137,21 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C21" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="18">
-        <v>41765.0</v>
+        <v>41765</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>64</v>
@@ -3891,24 +4206,24 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>133</v>
       </c>
       <c r="C22" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="18">
-        <v>41709.0</v>
+        <v>41709</v>
       </c>
       <c r="F22" s="19">
-        <v>41843.0</v>
+        <v>41843</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>135</v>
@@ -3962,24 +4277,24 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="18">
-        <v>41908.0</v>
+        <v>41908</v>
       </c>
       <c r="F23" s="19">
-        <v>41984.0</v>
+        <v>41984</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>135</v>
@@ -4033,15 +4348,15 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>134</v>
@@ -4050,7 +4365,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="19">
-        <v>41282.0</v>
+        <v>41282</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>135</v>
@@ -4104,24 +4419,24 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C25" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E25" s="18">
-        <v>41394.0</v>
+        <v>41394</v>
       </c>
       <c r="F25" s="19">
-        <v>41542.0</v>
+        <v>41542</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>135</v>
@@ -4175,24 +4490,24 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>156</v>
       </c>
       <c r="C26" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="18">
-        <v>42298.0</v>
+        <v>42298</v>
       </c>
       <c r="F26" s="19">
-        <v>42443.0</v>
+        <v>42443</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>157</v>
@@ -4246,24 +4561,24 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C27" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E27" s="18">
-        <v>42107.0</v>
+        <v>42107</v>
       </c>
       <c r="F27" s="19">
-        <v>42156.0</v>
+        <v>42156</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>135</v>
@@ -4317,24 +4632,24 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E28" s="18">
-        <v>41702.0</v>
+        <v>41702</v>
       </c>
       <c r="F28" s="19">
-        <v>41733.0</v>
+        <v>41733</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>168</v>
@@ -4388,24 +4703,24 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E29" s="18">
-        <v>42177.0</v>
+        <v>42177</v>
       </c>
       <c r="F29" s="19">
-        <v>42293.0</v>
+        <v>42293</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>172</v>
@@ -4459,24 +4774,24 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>177</v>
       </c>
       <c r="C30" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E30" s="18">
-        <v>41821.0</v>
+        <v>41821</v>
       </c>
       <c r="F30" s="19">
-        <v>41901.0</v>
+        <v>41901</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>178</v>
@@ -4528,24 +4843,24 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>183</v>
       </c>
       <c r="C31" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E31" s="18">
-        <v>42121.0</v>
+        <v>42121</v>
       </c>
       <c r="F31" s="19">
-        <v>42150.0</v>
+        <v>42150</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>184</v>
@@ -4597,24 +4912,24 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>188</v>
       </c>
       <c r="C32" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E32" s="18">
-        <v>42124.0</v>
+        <v>42124</v>
       </c>
       <c r="F32" s="19">
-        <v>42251.0</v>
+        <v>42251</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>135</v>
@@ -4666,15 +4981,15 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C33" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>134</v>
@@ -4683,7 +4998,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="19">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>135</v>
@@ -4735,24 +5050,24 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>198</v>
       </c>
       <c r="C34" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E34" s="18">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="F34" s="19">
-        <v>41974.0</v>
+        <v>41974</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>135</v>
@@ -4804,24 +5119,24 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E35" s="18">
-        <v>42338.0</v>
+        <v>42338</v>
       </c>
       <c r="F35" s="19">
-        <v>42426.0</v>
+        <v>42426</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>204</v>
@@ -4873,24 +5188,24 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E36" s="18">
-        <v>41967.0</v>
+        <v>41967</v>
       </c>
       <c r="F36" s="19">
-        <v>42024.0</v>
+        <v>42024</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>135</v>
@@ -4942,15 +5257,15 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>214</v>
       </c>
       <c r="C37" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>134</v>
@@ -4959,7 +5274,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="19">
-        <v>41341.0</v>
+        <v>41341</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>215</v>
@@ -5013,24 +5328,24 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C38" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="18">
-        <v>42079.0</v>
+        <v>42079</v>
       </c>
       <c r="F38" s="19">
-        <v>42923.0</v>
+        <v>42923</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>219</v>
@@ -5082,24 +5397,24 @@
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>223</v>
       </c>
       <c r="C39" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="18">
-        <v>42251.0</v>
+        <v>42251</v>
       </c>
       <c r="F39" s="19">
-        <v>42289.0</v>
+        <v>42289</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>224</v>
@@ -5151,24 +5466,24 @@
       <c r="AH39" s="11"/>
       <c r="AI39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>229</v>
       </c>
       <c r="C40" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="18">
-        <v>42195.0</v>
+        <v>42195</v>
       </c>
       <c r="F40" s="19">
-        <v>42242.0</v>
+        <v>42242</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>230</v>
@@ -5220,24 +5535,24 @@
       <c r="AH40" s="11"/>
       <c r="AI40" s="11"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C41" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="18">
-        <v>41214.0</v>
+        <v>41214</v>
       </c>
       <c r="F41" s="19">
-        <v>41619.0</v>
+        <v>41619</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>236</v>
@@ -5291,15 +5606,15 @@
       <c r="AH41" s="11"/>
       <c r="AI41" s="11"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>241</v>
       </c>
       <c r="C42" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>134</v>
@@ -5308,7 +5623,7 @@
         <v>64</v>
       </c>
       <c r="F42" s="19">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>242</v>
@@ -5360,15 +5675,15 @@
       <c r="AH42" s="11"/>
       <c r="AI42" s="11"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>247</v>
       </c>
       <c r="C43" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>134</v>
@@ -5377,7 +5692,7 @@
         <v>64</v>
       </c>
       <c r="F43" s="19">
-        <v>41786.0</v>
+        <v>41786</v>
       </c>
       <c r="G43" s="22" t="s">
         <v>135</v>
@@ -5429,24 +5744,24 @@
       <c r="AH43" s="11"/>
       <c r="AI43" s="11"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>252</v>
       </c>
       <c r="C44" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E44" s="18">
-        <v>42412.0</v>
+        <v>42412</v>
       </c>
       <c r="F44" s="19">
-        <v>42443.0</v>
+        <v>42443</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>253</v>
@@ -5498,24 +5813,24 @@
       <c r="AH44" s="11"/>
       <c r="AI44" s="11"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>259</v>
       </c>
       <c r="C45" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E45" s="18">
-        <v>42034.0</v>
+        <v>42034</v>
       </c>
       <c r="F45" s="19">
-        <v>42163.0</v>
+        <v>42163</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>135</v>
@@ -5567,24 +5882,24 @@
       <c r="AH45" s="11"/>
       <c r="AI45" s="11"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>264</v>
       </c>
       <c r="C46" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E46" s="18">
-        <v>42157.0</v>
+        <v>42157</v>
       </c>
       <c r="F46" s="19">
-        <v>42220.0</v>
+        <v>42220</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>135</v>
@@ -5636,24 +5951,24 @@
       <c r="AH46" s="11"/>
       <c r="AI46" s="11"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E47" s="18">
-        <v>41893.0</v>
+        <v>41893</v>
       </c>
       <c r="F47" s="19">
-        <v>41988.0</v>
+        <v>41988</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>135</v>
@@ -5705,24 +6020,24 @@
       <c r="AH47" s="11"/>
       <c r="AI47" s="11"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>275</v>
       </c>
       <c r="C48" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E48" s="18">
-        <v>42130.0</v>
+        <v>42130</v>
       </c>
       <c r="F48" s="19">
-        <v>42403.0</v>
+        <v>42403</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>135</v>
@@ -5774,24 +6089,24 @@
       <c r="AH48" s="11"/>
       <c r="AI48" s="11"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>280</v>
       </c>
       <c r="C49" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E49" s="18">
-        <v>42118.0</v>
+        <v>42118</v>
       </c>
       <c r="F49" s="19">
-        <v>42205.0</v>
+        <v>42205</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>281</v>
@@ -5843,24 +6158,24 @@
       <c r="AH49" s="11"/>
       <c r="AI49" s="11"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>286</v>
       </c>
       <c r="C50" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E50" s="18">
-        <v>41738.0</v>
+        <v>41738</v>
       </c>
       <c r="F50" s="19">
-        <v>41773.0</v>
+        <v>41773</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>287</v>
@@ -5912,24 +6227,24 @@
       <c r="AH50" s="11"/>
       <c r="AI50" s="11"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>294</v>
       </c>
       <c r="C51" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E51" s="18">
-        <v>41918.0</v>
+        <v>41918</v>
       </c>
       <c r="F51" s="19">
-        <v>42016.0</v>
+        <v>42016</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>135</v>
@@ -5981,24 +6296,24 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>299</v>
       </c>
       <c r="C52" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E52" s="18">
-        <v>41380.0</v>
+        <v>41380</v>
       </c>
       <c r="F52" s="19">
-        <v>41410.0</v>
+        <v>41410</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>135</v>
@@ -6050,24 +6365,24 @@
       <c r="AH52" s="11"/>
       <c r="AI52" s="11"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>304</v>
       </c>
       <c r="C53" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E53" s="18">
-        <v>41942.0</v>
+        <v>41942</v>
       </c>
       <c r="F53" s="19">
-        <v>42024.0</v>
+        <v>42024</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>135</v>
@@ -6119,24 +6434,24 @@
       <c r="AH53" s="11"/>
       <c r="AI53" s="11"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>308</v>
       </c>
       <c r="C54" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E54" s="18">
-        <v>41501.0</v>
+        <v>41501</v>
       </c>
       <c r="F54" s="19">
-        <v>41569.0</v>
+        <v>41569</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>309</v>
@@ -6188,24 +6503,24 @@
       <c r="AH54" s="11"/>
       <c r="AI54" s="11"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>313</v>
       </c>
       <c r="C55" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E55" s="18">
-        <v>41393.0</v>
+        <v>41393</v>
       </c>
       <c r="F55" s="19">
-        <v>41431.0</v>
+        <v>41431</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>135</v>
@@ -6257,24 +6572,24 @@
       <c r="AH55" s="11"/>
       <c r="AI55" s="11"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>320</v>
       </c>
       <c r="C56" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E56" s="18">
-        <v>41344.0</v>
+        <v>41344</v>
       </c>
       <c r="F56" s="19">
-        <v>41430.0</v>
+        <v>41430</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>321</v>
@@ -6326,24 +6641,24 @@
       <c r="AH56" s="11"/>
       <c r="AI56" s="11"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>326</v>
       </c>
       <c r="C57" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E57" s="18">
-        <v>41493.0</v>
+        <v>41493</v>
       </c>
       <c r="F57" s="28">
-        <v>42137.0</v>
+        <v>42137</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>135</v>
@@ -6395,24 +6710,24 @@
       <c r="AH57" s="11"/>
       <c r="AI57" s="11"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>330</v>
       </c>
       <c r="C58" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E58" s="18">
-        <v>41445.0</v>
+        <v>41445</v>
       </c>
       <c r="F58" s="19">
-        <v>41506.0</v>
+        <v>41506</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>135</v>
@@ -6464,24 +6779,24 @@
       <c r="AH58" s="11"/>
       <c r="AI58" s="11"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>333</v>
       </c>
       <c r="C59" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E59" s="18">
-        <v>42053.0</v>
+        <v>42053</v>
       </c>
       <c r="F59" s="19">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>334</v>
@@ -6533,24 +6848,24 @@
       <c r="AH59" s="11"/>
       <c r="AI59" s="11"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>338</v>
       </c>
       <c r="C60" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>339</v>
       </c>
       <c r="E60" s="18">
-        <v>41807.0</v>
+        <v>41807</v>
       </c>
       <c r="F60" s="19">
-        <v>41827.0</v>
+        <v>41827</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>135</v>
@@ -6602,24 +6917,24 @@
       <c r="AH60" s="11"/>
       <c r="AI60" s="11"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>343</v>
       </c>
       <c r="C61" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>339</v>
       </c>
       <c r="E61" s="18">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="F61" s="19">
-        <v>42321.0</v>
+        <v>42321</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>135</v>
@@ -6671,15 +6986,15 @@
       <c r="AH61" s="11"/>
       <c r="AI61" s="11"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>347</v>
       </c>
       <c r="C62" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>339</v>
@@ -6688,7 +7003,7 @@
         <v>64</v>
       </c>
       <c r="F62" s="19">
-        <v>41753.0</v>
+        <v>41753</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>135</v>
@@ -6740,15 +7055,15 @@
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>350</v>
       </c>
       <c r="C63" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>339</v>
@@ -6757,7 +7072,7 @@
         <v>64</v>
       </c>
       <c r="F63" s="19">
-        <v>41327.0</v>
+        <v>41327</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>135</v>
@@ -6809,15 +7124,15 @@
       <c r="AH63" s="11"/>
       <c r="AI63" s="11"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>353</v>
       </c>
       <c r="C64" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>339</v>
@@ -6826,7 +7141,7 @@
         <v>64</v>
       </c>
       <c r="F64" s="19">
-        <v>42104.0</v>
+        <v>42104</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>135</v>
@@ -6876,24 +7191,24 @@
       <c r="AH64" s="11"/>
       <c r="AI64" s="11"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>357</v>
       </c>
       <c r="C65" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>339</v>
       </c>
       <c r="E65" s="18">
-        <v>42354.0</v>
+        <v>42354</v>
       </c>
       <c r="F65" s="19">
-        <v>42431.0</v>
+        <v>42431</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>135</v>
@@ -6945,24 +7260,24 @@
       <c r="AH65" s="11"/>
       <c r="AI65" s="11"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>361</v>
       </c>
       <c r="C66" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>339</v>
       </c>
       <c r="E66" s="18">
-        <v>41904.0</v>
+        <v>41904</v>
       </c>
       <c r="F66" s="19">
-        <v>41922.0</v>
+        <v>41922</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>135</v>
@@ -7014,24 +7329,24 @@
       <c r="AH66" s="11"/>
       <c r="AI66" s="11"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>365</v>
       </c>
       <c r="C67" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>366</v>
+      <c r="E67" s="43" t="s">
+        <v>732</v>
       </c>
       <c r="F67" s="19">
-        <v>42128.0</v>
+        <v>42128</v>
       </c>
       <c r="G67" s="22" t="s">
         <v>135</v>
@@ -7043,18 +7358,18 @@
         <v>22</v>
       </c>
       <c r="J67" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>368</v>
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
       <c r="O67" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P67" s="16" t="s">
         <v>25</v>
@@ -7063,7 +7378,7 @@
         <v>26</v>
       </c>
       <c r="R67" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
@@ -7083,15 +7398,15 @@
       <c r="AH67" s="11"/>
       <c r="AI67" s="11"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C68" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>339</v>
@@ -7100,7 +7415,7 @@
         <v>64</v>
       </c>
       <c r="F68" s="19">
-        <v>41346.0</v>
+        <v>41346</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>135</v>
@@ -7118,12 +7433,12 @@
         <v>64</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
       <c r="O68" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P68" s="16" t="s">
         <v>64</v>
@@ -7152,24 +7467,24 @@
       <c r="AH68" s="11"/>
       <c r="AI68" s="11"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C69" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>339</v>
       </c>
       <c r="E69" s="18">
-        <v>42262.0</v>
+        <v>42262</v>
       </c>
       <c r="F69" s="19">
-        <v>41906.0</v>
+        <v>41906</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>135</v>
@@ -7181,18 +7496,18 @@
         <v>22</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K69" s="16" t="s">
         <v>64</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
       <c r="O69" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P69" s="16" t="s">
         <v>64</v>
@@ -7221,47 +7536,47 @@
       <c r="AH69" s="11"/>
       <c r="AI69" s="11"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C70" s="17">
+        <v>1</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="C70" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="E70" s="18">
+        <v>41261</v>
+      </c>
+      <c r="F70" s="19">
+        <v>41331</v>
+      </c>
+      <c r="G70" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="E70" s="18">
-        <v>41261.0</v>
-      </c>
-      <c r="F70" s="19">
-        <v>41331.0</v>
-      </c>
-      <c r="G70" s="16" t="s">
+      <c r="H70" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="I70" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="16" t="s">
         <v>381</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>382</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
       <c r="O70" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P70" s="16" t="s">
         <v>46</v>
@@ -7270,7 +7585,7 @@
         <v>26</v>
       </c>
       <c r="R70" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
@@ -7290,47 +7605,47 @@
       <c r="AH70" s="11"/>
       <c r="AI70" s="11"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="17">
+        <v>1</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E71" s="18">
+        <v>41357</v>
+      </c>
+      <c r="F71" s="19">
+        <v>41381</v>
+      </c>
+      <c r="G71" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="C71" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E71" s="18">
-        <v>41357.0</v>
-      </c>
-      <c r="F71" s="19">
-        <v>41381.0</v>
-      </c>
-      <c r="G71" s="16" t="s">
+      <c r="H71" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="H71" s="16" t="s">
-        <v>388</v>
-      </c>
       <c r="I71" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
       <c r="O71" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P71" s="16" t="s">
         <v>46</v>
@@ -7359,53 +7674,53 @@
       <c r="AH71" s="11"/>
       <c r="AI71" s="11"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C72" s="17">
+        <v>1</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E72" s="18">
+        <v>41573</v>
+      </c>
+      <c r="F72" s="19">
+        <v>41712</v>
+      </c>
+      <c r="G72" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C72" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E72" s="18">
-        <v>41573.0</v>
-      </c>
-      <c r="F72" s="19">
-        <v>41712.0</v>
-      </c>
-      <c r="G72" s="16" t="s">
+      <c r="H72" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="I72" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="I72" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J72" s="16" t="s">
+      <c r="K72" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="L72" s="16" t="s">
         <v>394</v>
-      </c>
-      <c r="K72" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="L72" s="16" t="s">
-        <v>395</v>
       </c>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
       <c r="O72" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P72" s="16" t="s">
         <v>46</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>64</v>
@@ -7428,47 +7743,47 @@
       <c r="AH72" s="11"/>
       <c r="AI72" s="11"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C73" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E73" s="18">
-        <v>41527.0</v>
+        <v>41527</v>
       </c>
       <c r="F73" s="19">
-        <v>41788.0</v>
+        <v>41788</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K73" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
       <c r="O73" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P73" s="16" t="s">
         <v>64</v>
@@ -7497,47 +7812,47 @@
       <c r="AH73" s="11"/>
       <c r="AI73" s="11"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E74" s="18">
-        <v>41828.0</v>
+        <v>41828</v>
       </c>
       <c r="F74" s="19">
-        <v>41887.0</v>
+        <v>41887</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
       <c r="O74" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P74" s="16" t="s">
         <v>46</v>
@@ -7566,42 +7881,42 @@
       <c r="AH74" s="11"/>
       <c r="AI74" s="11"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="17">
+        <v>1</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E75" s="18">
+        <v>41829</v>
+      </c>
+      <c r="F75" s="19">
+        <v>41891</v>
+      </c>
+      <c r="G75" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C75" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E75" s="18">
-        <v>41829.0</v>
-      </c>
-      <c r="F75" s="19">
-        <v>41891.0</v>
-      </c>
-      <c r="G75" s="16" t="s">
+      <c r="H75" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="H75" s="16" t="s">
-        <v>407</v>
-      </c>
       <c r="I75" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
@@ -7635,24 +7950,24 @@
       <c r="AH75" s="11"/>
       <c r="AI75" s="11"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C76" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E76" s="18">
-        <v>41934.0</v>
+        <v>41934</v>
       </c>
       <c r="F76" s="19">
-        <v>42054.0</v>
+        <v>42054</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>135</v>
@@ -7664,18 +7979,18 @@
         <v>22</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K76" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
       <c r="O76" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P76" s="16" t="s">
         <v>64</v>
@@ -7704,47 +8019,47 @@
       <c r="AH76" s="11"/>
       <c r="AI76" s="11"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C77" s="17">
+        <v>1</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" s="18">
+        <v>42222</v>
+      </c>
+      <c r="F77" s="19">
+        <v>42293</v>
+      </c>
+      <c r="G77" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C77" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E77" s="18">
-        <v>42222.0</v>
-      </c>
-      <c r="F77" s="19">
-        <v>42293.0</v>
-      </c>
-      <c r="G77" s="16" t="s">
+      <c r="H77" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="I77" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="L77" s="16" t="s">
         <v>414</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J77" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="K77" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="L77" s="16" t="s">
-        <v>415</v>
       </c>
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
       <c r="O77" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P77" s="16" t="s">
         <v>64</v>
@@ -7773,47 +8088,47 @@
       <c r="AH77" s="11"/>
       <c r="AI77" s="11"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C78" s="17">
+        <v>1</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C78" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>418</v>
-      </c>
       <c r="E78" s="18">
-        <v>42312.0</v>
+        <v>42312</v>
       </c>
       <c r="F78" s="19">
-        <v>42445.0</v>
+        <v>42445</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>135</v>
       </c>
       <c r="H78" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="16" t="s">
         <v>419</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>420</v>
       </c>
       <c r="K78" s="16" t="s">
         <v>137</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
       <c r="O78" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P78" s="16" t="s">
         <v>64</v>
@@ -7842,24 +8157,24 @@
       <c r="AH78" s="11"/>
       <c r="AI78" s="11"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C79" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E79" s="18">
-        <v>42122.0</v>
+        <v>42122</v>
       </c>
       <c r="F79" s="19">
-        <v>42212.0</v>
+        <v>42212</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>135</v>
@@ -7871,18 +8186,18 @@
         <v>22</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K79" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L79" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
       <c r="O79" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P79" s="16" t="s">
         <v>64</v>
@@ -7911,47 +8226,47 @@
       <c r="AH79" s="11"/>
       <c r="AI79" s="11"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C80" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E80" s="18">
-        <v>41387.0</v>
+        <v>41387</v>
       </c>
       <c r="F80" s="19">
-        <v>41463.0</v>
+        <v>41463</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H80" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="16" t="s">
         <v>427</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>428</v>
       </c>
       <c r="K80" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
       <c r="O80" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P80" s="16" t="s">
         <v>46</v>
@@ -7980,47 +8295,47 @@
       <c r="AH80" s="11"/>
       <c r="AI80" s="11"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C81" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E81" s="18">
-        <v>41661.0</v>
+        <v>41661</v>
       </c>
       <c r="F81" s="19">
-        <v>41746.0</v>
+        <v>41746</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>135</v>
       </c>
       <c r="H81" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="16" t="s">
         <v>432</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" s="16" t="s">
-        <v>433</v>
       </c>
       <c r="K81" s="16" t="s">
         <v>137</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
       <c r="O81" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P81" s="16" t="s">
         <v>64</v>
@@ -8049,50 +8364,50 @@
       <c r="AH81" s="11"/>
       <c r="AI81" s="11"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C82" s="17">
+        <v>1</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E82" s="18">
+        <v>41781</v>
+      </c>
+      <c r="F82" s="19">
+        <v>41890</v>
+      </c>
+      <c r="G82" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="C82" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D82" s="16" t="s">
+      <c r="H82" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E82" s="18">
-        <v>41781.0</v>
-      </c>
-      <c r="F82" s="19">
-        <v>41890.0</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="H82" s="16" t="s">
+      <c r="I82" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="16" t="s">
         <v>419</v>
-      </c>
-      <c r="I82" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>420</v>
       </c>
       <c r="K82" s="16" t="s">
         <v>137</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
       <c r="O82" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P82" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>26</v>
@@ -8120,30 +8435,30 @@
       <c r="AH82" s="11"/>
       <c r="AI82" s="11"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C83" s="17">
+        <v>1</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E83" s="18">
+        <v>41423</v>
+      </c>
+      <c r="F83" s="19">
+        <v>41494</v>
+      </c>
+      <c r="G83" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="C83" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="E83" s="18">
-        <v>41423.0</v>
-      </c>
-      <c r="F83" s="19">
-        <v>41494.0</v>
-      </c>
-      <c r="G83" s="22" t="s">
+      <c r="H83" s="23" t="s">
         <v>441</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>442</v>
       </c>
       <c r="I83" s="16" t="s">
         <v>22</v>
@@ -8155,15 +8470,15 @@
         <v>137</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
       <c r="O83" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="P83" s="16" t="s">
         <v>444</v>
-      </c>
-      <c r="P83" s="16" t="s">
-        <v>445</v>
       </c>
       <c r="Q83" s="16" t="s">
         <v>26</v>
@@ -8172,7 +8487,7 @@
         <v>27</v>
       </c>
       <c r="S83" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
@@ -8191,30 +8506,30 @@
       <c r="AH83" s="11"/>
       <c r="AI83" s="11"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" s="17">
+        <v>1</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="C84" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D84" s="16" t="s">
+      <c r="E84" s="18">
+        <v>41346</v>
+      </c>
+      <c r="F84" s="19">
+        <v>42139</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="E84" s="18">
-        <v>41346.0</v>
-      </c>
-      <c r="F84" s="19">
-        <v>42139.0</v>
-      </c>
-      <c r="G84" s="16" t="s">
+      <c r="H84" s="16" t="s">
         <v>449</v>
-      </c>
-      <c r="H84" s="16" t="s">
-        <v>450</v>
       </c>
       <c r="I84" s="16" t="s">
         <v>22</v>
@@ -8226,15 +8541,15 @@
         <v>22</v>
       </c>
       <c r="L84" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
       <c r="O84" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P84" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q84" s="16" t="s">
         <v>140</v>
@@ -8260,24 +8575,24 @@
       <c r="AH84" s="11"/>
       <c r="AI84" s="11"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C85" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E85" s="18">
-        <v>41935.0</v>
+        <v>41935</v>
       </c>
       <c r="F85" s="19">
-        <v>42019.0</v>
+        <v>42019</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>135</v>
@@ -8293,15 +8608,15 @@
       </c>
       <c r="K85" s="20"/>
       <c r="L85" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M85" s="25"/>
       <c r="N85" s="25"/>
       <c r="O85" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P85" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>140</v>
@@ -8327,24 +8642,24 @@
       <c r="AH85" s="11"/>
       <c r="AI85" s="11"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C86" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E86" s="18">
-        <v>42020.0</v>
+        <v>42020</v>
       </c>
       <c r="F86" s="19">
-        <v>42136.0</v>
+        <v>42136</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>135</v>
@@ -8356,27 +8671,27 @@
         <v>22</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K86" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L86" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M86" s="25"/>
       <c r="N86" s="25"/>
       <c r="O86" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P86" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>140</v>
       </c>
       <c r="R86" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
@@ -8396,56 +8711,56 @@
       <c r="AH86" s="11"/>
       <c r="AI86" s="11"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C87" s="17">
+        <v>1</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E87" s="18">
+        <v>42110</v>
+      </c>
+      <c r="F87" s="19">
+        <v>42195</v>
+      </c>
+      <c r="G87" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="C87" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="E87" s="18">
-        <v>42110.0</v>
-      </c>
-      <c r="F87" s="19">
-        <v>42195.0</v>
-      </c>
-      <c r="G87" s="16" t="s">
+      <c r="H87" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="H87" s="16" t="s">
+      <c r="I87" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="K87" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="I87" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="K87" s="16" t="s">
+      <c r="L87" s="24" t="s">
         <v>462</v>
-      </c>
-      <c r="L87" s="24" t="s">
-        <v>463</v>
       </c>
       <c r="M87" s="25"/>
       <c r="N87" s="25"/>
       <c r="O87" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P87" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R87" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
@@ -8465,56 +8780,56 @@
       <c r="AH87" s="11"/>
       <c r="AI87" s="11"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C88" s="17">
+        <v>1</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E88" s="18">
+        <v>41963</v>
+      </c>
+      <c r="F88" s="19">
+        <v>42026</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C88" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="E88" s="18">
-        <v>41963.0</v>
-      </c>
-      <c r="F88" s="19">
-        <v>42026.0</v>
-      </c>
-      <c r="G88" s="16" t="s">
+      <c r="H88" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="I88" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I88" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="16" t="s">
+      <c r="K88" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="K88" s="16" t="s">
+      <c r="L88" s="24" t="s">
         <v>469</v>
-      </c>
-      <c r="L88" s="24" t="s">
-        <v>470</v>
       </c>
       <c r="M88" s="25"/>
       <c r="N88" s="25"/>
       <c r="O88" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P88" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q88" s="16" t="s">
         <v>140</v>
       </c>
       <c r="R88" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
@@ -8534,56 +8849,56 @@
       <c r="AH88" s="11"/>
       <c r="AI88" s="11"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C89" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E89" s="18">
-        <v>42174.0</v>
+        <v>42174</v>
       </c>
       <c r="F89" s="19">
-        <v>42262.0</v>
+        <v>42262</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H89" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="I89" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" s="16" t="s">
+      <c r="K89" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="K89" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L89" s="21" t="s">
-        <v>476</v>
       </c>
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
       <c r="O89" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="P89" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="P89" s="16" t="s">
-        <v>478</v>
-      </c>
       <c r="Q89" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R89" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
@@ -8603,56 +8918,56 @@
       <c r="AH89" s="11"/>
       <c r="AI89" s="11"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C90" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E90" s="18">
-        <v>41731.0</v>
+        <v>41731</v>
       </c>
       <c r="F90" s="19">
-        <v>41813.0</v>
+        <v>41813</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K90" s="16" t="s">
         <v>131</v>
       </c>
       <c r="L90" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M90" s="25"/>
       <c r="N90" s="25"/>
       <c r="O90" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P90" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R90" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
@@ -8672,56 +8987,56 @@
       <c r="AH90" s="11"/>
       <c r="AI90" s="11"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C91" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E91" s="18">
-        <v>41743.0</v>
+        <v>41743</v>
       </c>
       <c r="F91" s="19">
-        <v>41771.0</v>
+        <v>41771</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>131</v>
       </c>
       <c r="J91" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K91" s="16" t="s">
         <v>131</v>
       </c>
       <c r="L91" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M91" s="25"/>
       <c r="N91" s="25"/>
       <c r="O91" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P91" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q91" s="16" t="s">
         <v>140</v>
       </c>
       <c r="R91" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
@@ -8741,47 +9056,47 @@
       <c r="AH91" s="11"/>
       <c r="AI91" s="11"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C92" s="17">
+        <v>1</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E92" s="18">
+        <v>41773</v>
+      </c>
+      <c r="F92" s="19">
+        <v>41872</v>
+      </c>
+      <c r="G92" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="C92" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="E92" s="18">
-        <v>41773.0</v>
-      </c>
-      <c r="F92" s="19">
-        <v>41872.0</v>
-      </c>
-      <c r="G92" s="16" t="s">
+      <c r="H92" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="I92" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="24" t="s">
         <v>490</v>
-      </c>
-      <c r="I92" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="K92" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L92" s="24" t="s">
-        <v>491</v>
       </c>
       <c r="M92" s="25"/>
       <c r="N92" s="25"/>
       <c r="O92" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P92" s="16" t="s">
         <v>25</v>
@@ -8790,10 +9105,10 @@
         <v>140</v>
       </c>
       <c r="R92" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S92" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
@@ -8812,47 +9127,47 @@
       <c r="AH92" s="11"/>
       <c r="AI92" s="11"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C93" s="17">
+        <v>1</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E93" s="29">
+        <v>41540</v>
+      </c>
+      <c r="F93" s="19">
+        <v>42191</v>
+      </c>
+      <c r="G93" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="C93" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="E93" s="29">
-        <v>41540.0</v>
-      </c>
-      <c r="F93" s="19">
-        <v>42191.0</v>
-      </c>
-      <c r="G93" s="16" t="s">
+      <c r="H93" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="I93" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="I93" s="16" t="s">
+      <c r="J93" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="J93" s="16" t="s">
+      <c r="K93" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="L93" s="16" t="s">
         <v>498</v>
-      </c>
-      <c r="K93" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="L93" s="16" t="s">
-        <v>499</v>
       </c>
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
       <c r="O93" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P93" s="16" t="s">
         <v>46</v>
@@ -8861,7 +9176,7 @@
         <v>140</v>
       </c>
       <c r="R93" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S93" s="11"/>
       <c r="T93" s="11"/>
@@ -8881,24 +9196,24 @@
       <c r="AH93" s="11"/>
       <c r="AI93" s="11"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C94" s="17">
+        <v>1</v>
+      </c>
+      <c r="D94" s="16" t="s">
         <v>502</v>
-      </c>
-      <c r="C94" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>503</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F94" s="19">
-        <v>42209.0</v>
+        <v>42209</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>135</v>
@@ -8910,21 +9225,21 @@
         <v>22</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K94" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L94" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M94" s="25"/>
       <c r="N94" s="25"/>
       <c r="O94" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P94" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q94" s="16" t="s">
         <v>26</v>
@@ -8952,47 +9267,47 @@
       <c r="AH94" s="11"/>
       <c r="AI94" s="11"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C95" s="17">
+        <v>1</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E95" s="18">
+        <v>41879</v>
+      </c>
+      <c r="F95" s="19">
+        <v>41918</v>
+      </c>
+      <c r="G95" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="C95" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E95" s="18">
-        <v>41879.0</v>
-      </c>
-      <c r="F95" s="19">
-        <v>41918.0</v>
-      </c>
-      <c r="G95" s="16" t="s">
+      <c r="H95" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="H95" s="16" t="s">
+      <c r="I95" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" s="24" t="s">
         <v>508</v>
-      </c>
-      <c r="I95" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="K95" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L95" s="24" t="s">
-        <v>509</v>
       </c>
       <c r="M95" s="25"/>
       <c r="N95" s="25"/>
       <c r="O95" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P95" s="16" t="s">
         <v>46</v>
@@ -9023,24 +9338,24 @@
       <c r="AH95" s="11"/>
       <c r="AI95" s="11"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C96" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E96" s="18">
-        <v>42137.0</v>
+        <v>42137</v>
       </c>
       <c r="F96" s="19">
-        <v>42222.0</v>
+        <v>42222</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>135</v>
@@ -9052,18 +9367,18 @@
         <v>22</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P96" s="16" t="s">
         <v>292</v>
@@ -9094,24 +9409,24 @@
       <c r="AH96" s="11"/>
       <c r="AI96" s="11"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C97" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F97" s="19">
-        <v>41480.0</v>
+        <v>41480</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>135</v>
@@ -9123,18 +9438,18 @@
         <v>22</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K97" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="L97" s="16" t="s">
         <v>515</v>
-      </c>
-      <c r="L97" s="16" t="s">
-        <v>516</v>
       </c>
       <c r="M97" s="20"/>
       <c r="N97" s="20"/>
       <c r="O97" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P97" s="16" t="s">
         <v>46</v>
@@ -9165,30 +9480,30 @@
       <c r="AH97" s="11"/>
       <c r="AI97" s="11"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="17">
+        <v>1</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E98" s="18">
+        <v>41989</v>
+      </c>
+      <c r="F98" s="19">
+        <v>42107</v>
+      </c>
+      <c r="G98" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="C98" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E98" s="18">
-        <v>41989.0</v>
-      </c>
-      <c r="F98" s="19">
-        <v>42107.0</v>
-      </c>
-      <c r="G98" s="22" t="s">
+      <c r="H98" s="23" t="s">
         <v>519</v>
-      </c>
-      <c r="H98" s="23" t="s">
-        <v>520</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>22</v>
@@ -9200,16 +9515,16 @@
         <v>137</v>
       </c>
       <c r="L98" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="M98" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="M98" s="26" t="s">
+      <c r="N98" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="N98" s="26" t="s">
-        <v>523</v>
-      </c>
       <c r="O98" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P98" s="16" t="s">
         <v>46</v>
@@ -9238,27 +9553,27 @@
       <c r="AH98" s="11"/>
       <c r="AI98" s="11"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C99" s="17">
+        <v>1</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E99" s="18">
+        <v>41838</v>
+      </c>
+      <c r="F99" s="19">
+        <v>41914</v>
+      </c>
+      <c r="G99" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="C99" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E99" s="18">
-        <v>41838.0</v>
-      </c>
-      <c r="F99" s="19">
-        <v>41914.0</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>525</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>305</v>
@@ -9267,18 +9582,18 @@
         <v>22</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M99" s="25"/>
       <c r="N99" s="25"/>
       <c r="O99" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P99" s="16" t="s">
         <v>46</v>
@@ -9287,7 +9602,7 @@
         <v>140</v>
       </c>
       <c r="R99" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S99" s="11"/>
       <c r="T99" s="11"/>
@@ -9307,47 +9622,47 @@
       <c r="AH99" s="11"/>
       <c r="AI99" s="11"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C100" s="17">
+        <v>1</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E100" s="18">
+        <v>41298</v>
+      </c>
+      <c r="F100" s="19">
+        <v>41369</v>
+      </c>
+      <c r="G100" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="C100" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E100" s="18">
-        <v>41298.0</v>
-      </c>
-      <c r="F100" s="19">
-        <v>41369.0</v>
-      </c>
-      <c r="G100" s="16" t="s">
+      <c r="H100" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="H100" s="16" t="s">
-        <v>529</v>
-      </c>
       <c r="I100" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K100" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M100" s="25"/>
       <c r="N100" s="25"/>
       <c r="O100" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P100" s="16" t="s">
         <v>46</v>
@@ -9376,18 +9691,18 @@
       <c r="AH100" s="11"/>
       <c r="AI100" s="11"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C101" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>64</v>
@@ -9396,27 +9711,27 @@
         <v>64</v>
       </c>
       <c r="G101" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="H101" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="I101" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="I101" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" s="16" t="s">
+      <c r="K101" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="L101" s="24" t="s">
         <v>534</v>
-      </c>
-      <c r="K101" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="L101" s="24" t="s">
-        <v>535</v>
       </c>
       <c r="M101" s="25"/>
       <c r="N101" s="25"/>
       <c r="O101" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P101" s="16" t="s">
         <v>64</v>
@@ -9425,7 +9740,7 @@
         <v>140</v>
       </c>
       <c r="R101" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S101" s="11"/>
       <c r="T101" s="11"/>
@@ -9445,30 +9760,30 @@
       <c r="AH101" s="11"/>
       <c r="AI101" s="11"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C102" s="17">
+        <v>1</v>
+      </c>
+      <c r="D102" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="C102" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D102" s="16" t="s">
+      <c r="E102" s="18">
+        <v>41647</v>
+      </c>
+      <c r="F102" s="19">
+        <v>41949</v>
+      </c>
+      <c r="G102" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="E102" s="18">
-        <v>41647.0</v>
-      </c>
-      <c r="F102" s="19">
-        <v>41949.0</v>
-      </c>
-      <c r="G102" s="16" t="s">
+      <c r="H102" s="16" t="s">
         <v>540</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>541</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>22</v>
@@ -9480,12 +9795,12 @@
         <v>22</v>
       </c>
       <c r="L102" s="24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M102" s="25"/>
       <c r="N102" s="25"/>
       <c r="O102" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P102" s="16" t="s">
         <v>46</v>
@@ -9514,30 +9829,30 @@
       <c r="AH102" s="11"/>
       <c r="AI102" s="11"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C103" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E103" s="18">
-        <v>41457.0</v>
+        <v>41457</v>
       </c>
       <c r="F103" s="19">
-        <v>41528.0</v>
+        <v>41528</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>22</v>
@@ -9549,12 +9864,12 @@
         <v>22</v>
       </c>
       <c r="L103" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M103" s="25"/>
       <c r="N103" s="25"/>
       <c r="O103" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P103" s="16" t="s">
         <v>46</v>
@@ -9583,30 +9898,30 @@
       <c r="AH103" s="11"/>
       <c r="AI103" s="11"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C104" s="17">
+        <v>1</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E104" s="18">
+        <v>41477</v>
+      </c>
+      <c r="F104" s="19">
+        <v>41529</v>
+      </c>
+      <c r="G104" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="C104" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E104" s="18">
-        <v>41477.0</v>
-      </c>
-      <c r="F104" s="19">
-        <v>41529.0</v>
-      </c>
-      <c r="G104" s="16" t="s">
+      <c r="H104" s="16" t="s">
         <v>547</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>548</v>
       </c>
       <c r="I104" s="16" t="s">
         <v>22</v>
@@ -9618,12 +9933,12 @@
         <v>22</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M104" s="20"/>
       <c r="N104" s="20"/>
       <c r="O104" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P104" s="16" t="s">
         <v>46</v>
@@ -9652,24 +9967,24 @@
       <c r="AH104" s="11"/>
       <c r="AI104" s="11"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C105" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F105" s="19">
-        <v>41926.0</v>
+        <v>41926</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>135</v>
@@ -9687,12 +10002,12 @@
         <v>22</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
       <c r="O105" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P105" s="16" t="s">
         <v>25</v>
@@ -9721,47 +10036,47 @@
       <c r="AH105" s="11"/>
       <c r="AI105" s="11"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C106" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E106" s="18">
-        <v>41453.0</v>
+        <v>41453</v>
       </c>
       <c r="F106" s="19">
-        <v>42300.0</v>
+        <v>42300</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H106" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="I106" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" s="16" t="s">
+      <c r="K106" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="24" t="s">
         <v>555</v>
-      </c>
-      <c r="K106" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L106" s="24" t="s">
-        <v>556</v>
       </c>
       <c r="M106" s="25"/>
       <c r="N106" s="25"/>
       <c r="O106" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P106" s="16" t="s">
         <v>46</v>
@@ -9790,47 +10105,47 @@
       <c r="AH106" s="11"/>
       <c r="AI106" s="11"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C107" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E107" s="18">
-        <v>41446.0</v>
+        <v>41446</v>
       </c>
       <c r="F107" s="19">
-        <v>41501.0</v>
+        <v>41501</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H107" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="I107" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J107" s="16" t="s">
+      <c r="K107" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107" s="16" t="s">
         <v>559</v>
-      </c>
-      <c r="K107" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L107" s="16" t="s">
-        <v>560</v>
       </c>
       <c r="M107" s="20"/>
       <c r="N107" s="20"/>
       <c r="O107" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P107" s="16" t="s">
         <v>64</v>
@@ -9859,47 +10174,47 @@
       <c r="AH107" s="11"/>
       <c r="AI107" s="11"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C108" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E108" s="18">
-        <v>42160.0</v>
+        <v>42160</v>
       </c>
       <c r="F108" s="19">
-        <v>42257.0</v>
+        <v>42257</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H108" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="16" t="s">
         <v>563</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J108" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="K108" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L108" s="16" t="s">
-        <v>564</v>
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
       <c r="O108" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P108" s="16" t="s">
         <v>25</v>
@@ -9928,30 +10243,30 @@
       <c r="AH108" s="11"/>
       <c r="AI108" s="11"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C109" s="17">
+        <v>1</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E109" s="18">
+        <v>41950</v>
+      </c>
+      <c r="F109" s="19">
+        <v>42026</v>
+      </c>
+      <c r="G109" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="C109" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E109" s="18">
-        <v>41950.0</v>
-      </c>
-      <c r="F109" s="19">
-        <v>42026.0</v>
-      </c>
-      <c r="G109" s="16" t="s">
+      <c r="H109" s="16" t="s">
         <v>567</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>568</v>
       </c>
       <c r="I109" s="16" t="s">
         <v>22</v>
@@ -9963,12 +10278,12 @@
         <v>22</v>
       </c>
       <c r="L109" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M109" s="25"/>
       <c r="N109" s="25"/>
       <c r="O109" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P109" s="16" t="s">
         <v>64</v>
@@ -9997,42 +10312,42 @@
       <c r="AH109" s="11"/>
       <c r="AI109" s="11"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C110" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E110" s="18">
-        <v>41604.0</v>
+        <v>41604</v>
       </c>
       <c r="F110" s="19">
-        <v>41667.0</v>
+        <v>41667</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H110" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="I110" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" s="16" t="s">
+      <c r="K110" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" s="16" t="s">
         <v>573</v>
-      </c>
-      <c r="K110" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L110" s="16" t="s">
-        <v>574</v>
       </c>
       <c r="M110" s="20"/>
       <c r="N110" s="20"/>
@@ -10046,7 +10361,7 @@
         <v>26</v>
       </c>
       <c r="R110" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S110" s="11"/>
       <c r="T110" s="11"/>
@@ -10066,24 +10381,24 @@
       <c r="AH110" s="11"/>
       <c r="AI110" s="11"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C111" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E111" s="18">
-        <v>41989.0</v>
+        <v>41989</v>
       </c>
       <c r="F111" s="19">
-        <v>42013.0</v>
+        <v>42013</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>135</v>
@@ -10095,18 +10410,18 @@
         <v>22</v>
       </c>
       <c r="J111" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="K111" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" s="24" t="s">
         <v>577</v>
-      </c>
-      <c r="K111" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L111" s="24" t="s">
-        <v>578</v>
       </c>
       <c r="M111" s="25"/>
       <c r="N111" s="25"/>
       <c r="O111" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P111" s="16" t="s">
         <v>64</v>
@@ -10135,24 +10450,24 @@
       <c r="AH111" s="11"/>
       <c r="AI111" s="11"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C112" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E112" s="18">
-        <v>41817.0</v>
+        <v>41817</v>
       </c>
       <c r="F112" s="19">
-        <v>41891.0</v>
+        <v>41891</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>135</v>
@@ -10164,18 +10479,18 @@
         <v>22</v>
       </c>
       <c r="J112" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" s="16" t="s">
         <v>581</v>
-      </c>
-      <c r="K112" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L112" s="16" t="s">
-        <v>582</v>
       </c>
       <c r="M112" s="20"/>
       <c r="N112" s="20"/>
       <c r="O112" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P112" s="16" t="s">
         <v>64</v>
@@ -10204,30 +10519,30 @@
       <c r="AH112" s="11"/>
       <c r="AI112" s="11"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C113" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E113" s="18">
-        <v>41239.0</v>
+        <v>41239</v>
       </c>
       <c r="F113" s="19">
-        <v>41283.0</v>
+        <v>41283</v>
       </c>
       <c r="G113" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>22</v>
@@ -10239,12 +10554,12 @@
         <v>22</v>
       </c>
       <c r="L113" s="24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M113" s="25"/>
       <c r="N113" s="25"/>
       <c r="O113" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P113" s="16" t="s">
         <v>64</v>
@@ -10273,24 +10588,24 @@
       <c r="AH113" s="11"/>
       <c r="AI113" s="11"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C114" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E114" s="18">
-        <v>41431.0</v>
+        <v>41431</v>
       </c>
       <c r="F114" s="19">
-        <v>41507.0</v>
+        <v>41507</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>135</v>
@@ -10308,12 +10623,12 @@
         <v>22</v>
       </c>
       <c r="L114" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M114" s="20"/>
       <c r="N114" s="20"/>
       <c r="O114" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P114" s="16" t="s">
         <v>64</v>
@@ -10342,47 +10657,47 @@
       <c r="AH114" s="11"/>
       <c r="AI114" s="11"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C115" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E115" s="18">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="F115" s="19">
-        <v>42111.0</v>
+        <v>42111</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H115" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="I115" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="16" t="s">
+      <c r="K115" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" s="16" t="s">
         <v>593</v>
-      </c>
-      <c r="K115" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L115" s="16" t="s">
-        <v>594</v>
       </c>
       <c r="M115" s="20"/>
       <c r="N115" s="20"/>
       <c r="O115" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P115" s="16" t="s">
         <v>25</v>
@@ -10391,7 +10706,7 @@
         <v>26</v>
       </c>
       <c r="R115" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S115" s="11"/>
       <c r="T115" s="11"/>
@@ -10411,30 +10726,30 @@
       <c r="AH115" s="11"/>
       <c r="AI115" s="11"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C116" s="17">
+        <v>1</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E116" s="18">
+        <v>42200</v>
+      </c>
+      <c r="F116" s="19">
+        <v>42282</v>
+      </c>
+      <c r="G116" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="C116" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E116" s="18">
-        <v>42200.0</v>
-      </c>
-      <c r="F116" s="19">
-        <v>42282.0</v>
-      </c>
-      <c r="G116" s="22" t="s">
+      <c r="H116" s="16" t="s">
         <v>598</v>
-      </c>
-      <c r="H116" s="16" t="s">
-        <v>599</v>
       </c>
       <c r="I116" s="16" t="s">
         <v>22</v>
@@ -10446,12 +10761,12 @@
         <v>62</v>
       </c>
       <c r="L116" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M116" s="25"/>
       <c r="N116" s="25"/>
       <c r="O116" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P116" s="16" t="s">
         <v>64</v>
@@ -10480,24 +10795,24 @@
       <c r="AH116" s="11"/>
       <c r="AI116" s="11"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C117" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E117" s="18">
-        <v>41617.0</v>
+        <v>41617</v>
       </c>
       <c r="F117" s="19">
-        <v>41668.0</v>
+        <v>41668</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>135</v>
@@ -10509,18 +10824,18 @@
         <v>22</v>
       </c>
       <c r="J117" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="K117" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" s="16" t="s">
         <v>603</v>
-      </c>
-      <c r="K117" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L117" s="16" t="s">
-        <v>604</v>
       </c>
       <c r="M117" s="20"/>
       <c r="N117" s="20"/>
       <c r="O117" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P117" s="16" t="s">
         <v>64</v>
@@ -10549,24 +10864,24 @@
       <c r="AH117" s="11"/>
       <c r="AI117" s="11"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C118" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E118" s="18">
-        <v>42019.0</v>
+        <v>42019</v>
       </c>
       <c r="F118" s="19">
-        <v>42076.0</v>
+        <v>42076</v>
       </c>
       <c r="G118" s="16" t="s">
         <v>135</v>
@@ -10578,18 +10893,18 @@
         <v>22</v>
       </c>
       <c r="J118" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="24" t="s">
         <v>607</v>
-      </c>
-      <c r="K118" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L118" s="24" t="s">
-        <v>608</v>
       </c>
       <c r="M118" s="25"/>
       <c r="N118" s="25"/>
       <c r="O118" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P118" s="16" t="s">
         <v>64</v>
@@ -10618,30 +10933,30 @@
       <c r="AH118" s="11"/>
       <c r="AI118" s="11"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C119" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E119" s="18">
-        <v>41817.0</v>
+        <v>41817</v>
       </c>
       <c r="F119" s="19">
-        <v>41962.0</v>
+        <v>41962</v>
       </c>
       <c r="G119" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>22</v>
@@ -10653,12 +10968,12 @@
         <v>22</v>
       </c>
       <c r="L119" s="16" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="20"/>
       <c r="O119" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P119" s="16" t="s">
         <v>46</v>
@@ -10687,30 +11002,30 @@
       <c r="AH119" s="11"/>
       <c r="AI119" s="11"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="C120" s="17">
+        <v>1</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E120" s="18">
+        <v>42065</v>
+      </c>
+      <c r="F120" s="19">
+        <v>42103</v>
+      </c>
+      <c r="G120" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="C120" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E120" s="18">
-        <v>42065.0</v>
-      </c>
-      <c r="F120" s="19">
-        <v>42103.0</v>
-      </c>
-      <c r="G120" s="16" t="s">
+      <c r="H120" s="16" t="s">
         <v>614</v>
-      </c>
-      <c r="H120" s="16" t="s">
-        <v>615</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>22</v>
@@ -10722,12 +11037,12 @@
         <v>131</v>
       </c>
       <c r="L120" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M120" s="20"/>
       <c r="N120" s="20"/>
       <c r="O120" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P120" s="16" t="s">
         <v>64</v>
@@ -10756,47 +11071,47 @@
       <c r="AH120" s="11"/>
       <c r="AI120" s="11"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C121" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E121" s="18">
-        <v>42070.0</v>
+        <v>42070</v>
       </c>
       <c r="F121" s="19">
-        <v>42102.0</v>
+        <v>42102</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H121" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="I121" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" s="16" t="s">
+      <c r="K121" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L121" s="16" t="s">
         <v>620</v>
-      </c>
-      <c r="K121" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L121" s="16" t="s">
-        <v>621</v>
       </c>
       <c r="M121" s="20"/>
       <c r="N121" s="20"/>
       <c r="O121" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P121" s="16" t="s">
         <v>46</v>
@@ -10825,27 +11140,27 @@
       <c r="AH121" s="11"/>
       <c r="AI121" s="11"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C122" s="17">
+        <v>1</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E122" s="18">
+        <v>41431</v>
+      </c>
+      <c r="F122" s="19">
+        <v>41530</v>
+      </c>
+      <c r="G122" s="16" t="s">
         <v>622</v>
-      </c>
-      <c r="C122" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E122" s="18">
-        <v>41431.0</v>
-      </c>
-      <c r="F122" s="19">
-        <v>41530.0</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>623</v>
       </c>
       <c r="H122" s="16" t="s">
         <v>305</v>
@@ -10854,18 +11169,18 @@
         <v>22</v>
       </c>
       <c r="J122" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="K122" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122" s="16" t="s">
         <v>624</v>
-      </c>
-      <c r="K122" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L122" s="16" t="s">
-        <v>625</v>
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="20"/>
       <c r="O122" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P122" s="16" t="s">
         <v>46</v>
@@ -10894,47 +11209,47 @@
       <c r="AH122" s="11"/>
       <c r="AI122" s="11"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C123" s="17">
+        <v>1</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E123" s="18">
+        <v>41582</v>
+      </c>
+      <c r="F123" s="19">
+        <v>41690</v>
+      </c>
+      <c r="G123" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="C123" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E123" s="18">
-        <v>41582.0</v>
-      </c>
-      <c r="F123" s="19">
-        <v>41690.0</v>
-      </c>
-      <c r="G123" s="16" t="s">
+      <c r="H123" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="I123" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="I123" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J123" s="16" t="s">
+      <c r="K123" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="K123" s="16" t="s">
+      <c r="L123" s="16" t="s">
         <v>630</v>
-      </c>
-      <c r="L123" s="16" t="s">
-        <v>631</v>
       </c>
       <c r="M123" s="20"/>
       <c r="N123" s="20"/>
       <c r="O123" s="16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P123" s="16" t="s">
         <v>64</v>
@@ -10963,47 +11278,47 @@
       <c r="AH123" s="11"/>
       <c r="AI123" s="11"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="C124" s="17">
+        <v>1</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E124" s="18">
+        <v>41900</v>
+      </c>
+      <c r="F124" s="19">
+        <v>41955</v>
+      </c>
+      <c r="G124" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="C124" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E124" s="18">
-        <v>41900.0</v>
-      </c>
-      <c r="F124" s="19">
-        <v>41955.0</v>
-      </c>
-      <c r="G124" s="16" t="s">
+      <c r="H124" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="H124" s="16" t="s">
+      <c r="I124" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="I124" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124" s="16" t="s">
+      <c r="K124" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124" s="16" t="s">
         <v>636</v>
-      </c>
-      <c r="K124" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L124" s="16" t="s">
-        <v>637</v>
       </c>
       <c r="M124" s="20"/>
       <c r="N124" s="20"/>
       <c r="O124" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P124" s="16" t="s">
         <v>64</v>
@@ -11032,30 +11347,30 @@
       <c r="AH124" s="11"/>
       <c r="AI124" s="11"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C125" s="17">
+        <v>1</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E125" s="18">
+        <v>41242</v>
+      </c>
+      <c r="F125" s="19">
+        <v>41474</v>
+      </c>
+      <c r="G125" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="C125" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E125" s="18">
-        <v>41242.0</v>
-      </c>
-      <c r="F125" s="19">
-        <v>41474.0</v>
-      </c>
-      <c r="G125" s="22" t="s">
+      <c r="H125" s="23" t="s">
         <v>640</v>
-      </c>
-      <c r="H125" s="23" t="s">
-        <v>641</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>22</v>
@@ -11067,12 +11382,12 @@
         <v>62</v>
       </c>
       <c r="L125" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M125" s="20"/>
       <c r="N125" s="20"/>
       <c r="O125" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P125" s="16" t="s">
         <v>25</v>
@@ -11101,47 +11416,47 @@
       <c r="AH125" s="11"/>
       <c r="AI125" s="11"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C126" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E126" s="18">
-        <v>41968.0</v>
+        <v>41968</v>
       </c>
       <c r="F126" s="19">
-        <v>42117.0</v>
+        <v>42117</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H126" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="K126" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" s="16" t="s">
         <v>645</v>
-      </c>
-      <c r="I126" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="K126" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L126" s="16" t="s">
-        <v>646</v>
       </c>
       <c r="M126" s="20"/>
       <c r="N126" s="20"/>
       <c r="O126" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P126" s="16" t="s">
         <v>64</v>
@@ -11170,30 +11485,30 @@
       <c r="AH126" s="11"/>
       <c r="AI126" s="11"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="C127" s="17">
+        <v>1</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E127" s="18">
+        <v>41905</v>
+      </c>
+      <c r="F127" s="19">
+        <v>42062</v>
+      </c>
+      <c r="G127" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="C127" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E127" s="18">
-        <v>41905.0</v>
-      </c>
-      <c r="F127" s="19">
-        <v>42062.0</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>649</v>
-      </c>
       <c r="H127" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>22</v>
@@ -11205,12 +11520,12 @@
         <v>22</v>
       </c>
       <c r="L127" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M127" s="25"/>
       <c r="N127" s="25"/>
       <c r="O127" s="16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P127" s="16" t="s">
         <v>46</v>
@@ -11239,47 +11554,47 @@
       <c r="AH127" s="11"/>
       <c r="AI127" s="11"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="C128" s="17">
+        <v>1</v>
+      </c>
+      <c r="D128" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="C128" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>653</v>
-      </c>
       <c r="E128" s="18">
-        <v>41401.0</v>
+        <v>41401</v>
       </c>
       <c r="F128" s="19">
-        <v>41495.0</v>
+        <v>41495</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H128" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="I128" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="16" t="s">
         <v>654</v>
-      </c>
-      <c r="I128" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128" s="16" t="s">
-        <v>655</v>
       </c>
       <c r="K128" s="16" t="s">
         <v>131</v>
       </c>
       <c r="L128" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M128" s="25"/>
       <c r="N128" s="25"/>
       <c r="O128" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P128" s="16" t="s">
         <v>64</v>
@@ -11308,47 +11623,47 @@
       <c r="AH128" s="11"/>
       <c r="AI128" s="11"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C129" s="17">
+        <v>1</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E129" s="18">
+        <v>41430</v>
+      </c>
+      <c r="F129" s="19">
+        <v>41584</v>
+      </c>
+      <c r="G129" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="C129" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="E129" s="18">
-        <v>41430.0</v>
-      </c>
-      <c r="F129" s="19">
-        <v>41584.0</v>
-      </c>
-      <c r="G129" s="16" t="s">
+      <c r="H129" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="H129" s="16" t="s">
+      <c r="I129" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="I129" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J129" s="16" t="s">
+      <c r="K129" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129" s="24" t="s">
         <v>661</v>
-      </c>
-      <c r="K129" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L129" s="24" t="s">
-        <v>662</v>
       </c>
       <c r="M129" s="25"/>
       <c r="N129" s="25"/>
       <c r="O129" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P129" s="16" t="s">
         <v>46</v>
@@ -11377,47 +11692,47 @@
       <c r="AH129" s="11"/>
       <c r="AI129" s="11"/>
     </row>
-    <row r="130">
-      <c r="A130" s="5">
-        <v>129.0</v>
+    <row r="130" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="38">
+        <v>129</v>
       </c>
       <c r="B130" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="C130" s="17">
+        <v>1</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E130" s="18">
+        <v>42216</v>
+      </c>
+      <c r="F130" s="19">
+        <v>42247</v>
+      </c>
+      <c r="G130" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="C130" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="E130" s="18">
-        <v>42216.0</v>
-      </c>
-      <c r="F130" s="19">
-        <v>42247.0</v>
-      </c>
-      <c r="G130" s="16" t="s">
+      <c r="H130" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="H130" s="16" t="s">
+      <c r="I130" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="I130" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" s="16" t="s">
+      <c r="K130" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130" s="16" t="s">
         <v>667</v>
-      </c>
-      <c r="K130" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L130" s="16" t="s">
-        <v>668</v>
       </c>
       <c r="M130" s="20"/>
       <c r="N130" s="20"/>
       <c r="O130" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P130" s="16" t="s">
         <v>46</v>
@@ -11446,30 +11761,30 @@
       <c r="AH130" s="11"/>
       <c r="AI130" s="11"/>
     </row>
-    <row r="131">
-      <c r="A131" s="5">
-        <v>130.0</v>
+    <row r="131" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="38">
+        <v>130</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="C131" s="17">
+        <v>1</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E131" s="18">
+        <v>42170</v>
+      </c>
+      <c r="F131" s="19">
+        <v>42405</v>
+      </c>
+      <c r="G131" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="C131" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="E131" s="18">
-        <v>42170.0</v>
-      </c>
-      <c r="F131" s="19">
-        <v>42405.0</v>
-      </c>
-      <c r="G131" s="22" t="s">
+      <c r="H131" s="27" t="s">
         <v>671</v>
-      </c>
-      <c r="H131" s="27" t="s">
-        <v>672</v>
       </c>
       <c r="I131" s="16" t="s">
         <v>22</v>
@@ -11481,12 +11796,12 @@
         <v>62</v>
       </c>
       <c r="L131" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="20"/>
       <c r="O131" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P131" s="16" t="s">
         <v>46</v>
@@ -11515,42 +11830,42 @@
       <c r="AH131" s="11"/>
       <c r="AI131" s="11"/>
     </row>
-    <row r="132">
-      <c r="A132" s="5">
-        <v>131.0</v>
+    <row r="132" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="38">
+        <v>131</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C132" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E132" s="18">
-        <v>41430.0</v>
+        <v>41430</v>
       </c>
       <c r="F132" s="19">
-        <v>41527.0</v>
+        <v>41527</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H132" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="I132" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="K132" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132" s="16" t="s">
         <v>676</v>
-      </c>
-      <c r="I132" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J132" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="K132" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L132" s="16" t="s">
-        <v>677</v>
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="20"/>
@@ -11584,982 +11899,1039 @@
       <c r="AH132" s="11"/>
       <c r="AI132" s="11"/>
     </row>
-    <row r="133">
-      <c r="A133" s="5">
-        <v>132.0</v>
-      </c>
-      <c r="B133" s="26" t="s">
+    <row r="133" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="38">
+        <v>132</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="C133" s="30">
+        <v>1</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E133" s="32">
+        <v>42460</v>
+      </c>
+      <c r="F133" s="32">
+        <v>42551</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H133" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="I133" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K133" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
+      <c r="V133" s="33"/>
+      <c r="W133" s="33"/>
+      <c r="X133" s="33"/>
+      <c r="Y133" s="33"/>
+      <c r="Z133" s="33"/>
+      <c r="AA133" s="33"/>
+      <c r="AB133" s="33"/>
+      <c r="AC133" s="33"/>
+      <c r="AD133" s="33"/>
+      <c r="AE133" s="33"/>
+      <c r="AF133" s="33"/>
+      <c r="AG133" s="33"/>
+      <c r="AH133" s="33"/>
+      <c r="AI133" s="33"/>
+    </row>
+    <row r="134" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="38">
+        <v>133</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="C134" s="30">
+        <v>1</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E134" s="32">
+        <v>42507</v>
+      </c>
+      <c r="F134" s="32">
+        <v>42538</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H134" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="I134" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K134" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C133" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E133" s="30">
-        <v>42460.0</v>
-      </c>
-      <c r="F133" s="30">
-        <v>42551.0</v>
-      </c>
-      <c r="G133" s="26" t="s">
+      <c r="M134" s="33"/>
+      <c r="N134" s="33"/>
+      <c r="O134" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="P134" s="33"/>
+      <c r="Q134" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R134" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S134" s="33"/>
+      <c r="T134" s="33"/>
+      <c r="U134" s="33"/>
+      <c r="V134" s="33"/>
+      <c r="W134" s="33"/>
+      <c r="X134" s="33"/>
+      <c r="Y134" s="33"/>
+      <c r="Z134" s="33"/>
+      <c r="AA134" s="33"/>
+      <c r="AB134" s="33"/>
+      <c r="AC134" s="33"/>
+      <c r="AD134" s="33"/>
+      <c r="AE134" s="33"/>
+      <c r="AF134" s="33"/>
+      <c r="AG134" s="33"/>
+      <c r="AH134" s="33"/>
+      <c r="AI134" s="33"/>
+    </row>
+    <row r="135" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="38">
+        <v>134</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>735</v>
+      </c>
+      <c r="C135" s="30">
+        <v>1</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E135" s="32">
+        <v>42502</v>
+      </c>
+      <c r="F135" s="32">
+        <v>42606</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="H135" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I135" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="K135" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="P135" s="33"/>
+      <c r="Q135" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R135" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S135" s="33"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="33"/>
+      <c r="W135" s="33"/>
+      <c r="X135" s="33"/>
+      <c r="Y135" s="33"/>
+      <c r="Z135" s="33"/>
+      <c r="AA135" s="33"/>
+      <c r="AB135" s="33"/>
+      <c r="AC135" s="33"/>
+      <c r="AD135" s="33"/>
+      <c r="AE135" s="33"/>
+      <c r="AF135" s="33"/>
+      <c r="AG135" s="33"/>
+      <c r="AH135" s="33"/>
+      <c r="AI135" s="33"/>
+    </row>
+    <row r="136" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="38">
         <v>135</v>
       </c>
-      <c r="H133" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="I133" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J133" s="26" t="s">
+      <c r="B136" s="40" t="s">
+        <v>736</v>
+      </c>
+      <c r="C136" s="30">
+        <v>1</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E136" s="32">
+        <v>42759</v>
+      </c>
+      <c r="F136" s="32">
+        <v>42814</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="H136" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I136" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K133" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L133" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
-      <c r="P133" s="11"/>
-      <c r="Q133" s="11"/>
-      <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
-      <c r="T133" s="11"/>
-      <c r="U133" s="11"/>
-      <c r="V133" s="11"/>
-      <c r="W133" s="11"/>
-      <c r="X133" s="11"/>
-      <c r="Y133" s="11"/>
-      <c r="Z133" s="11"/>
-      <c r="AA133" s="11"/>
-      <c r="AB133" s="11"/>
-      <c r="AC133" s="11"/>
-      <c r="AD133" s="11"/>
-      <c r="AE133" s="11"/>
-      <c r="AF133" s="11"/>
-      <c r="AG133" s="11"/>
-      <c r="AH133" s="11"/>
-      <c r="AI133" s="11"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="5">
-        <v>133.0</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C134" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E134" s="30">
-        <v>42507.0</v>
-      </c>
-      <c r="F134" s="30">
-        <v>42538.0</v>
-      </c>
-      <c r="G134" s="26" t="s">
+      <c r="K136" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="M136" s="33"/>
+      <c r="N136" s="33"/>
+      <c r="O136" s="33"/>
+      <c r="P136" s="33"/>
+      <c r="Q136" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R136" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S136" s="33"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="33"/>
+      <c r="V136" s="33"/>
+      <c r="W136" s="33"/>
+      <c r="X136" s="33"/>
+      <c r="Y136" s="33"/>
+      <c r="Z136" s="33"/>
+      <c r="AA136" s="33"/>
+      <c r="AB136" s="33"/>
+      <c r="AC136" s="33"/>
+      <c r="AD136" s="33"/>
+      <c r="AE136" s="33"/>
+      <c r="AF136" s="33"/>
+      <c r="AG136" s="33"/>
+      <c r="AH136" s="33"/>
+      <c r="AI136" s="33"/>
+    </row>
+    <row r="137" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="38">
+        <v>136</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>737</v>
+      </c>
+      <c r="C137" s="30">
+        <v>1</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E137" s="32">
+        <v>42793</v>
+      </c>
+      <c r="F137" s="32">
+        <v>42927</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="H137" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="I137" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="K137" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L137" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="M137" s="33"/>
+      <c r="N137" s="33"/>
+      <c r="O137" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="P137" s="33"/>
+      <c r="Q137" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R137" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S137" s="33"/>
+      <c r="T137" s="33"/>
+      <c r="U137" s="33"/>
+      <c r="V137" s="33"/>
+      <c r="W137" s="33"/>
+      <c r="X137" s="33"/>
+      <c r="Y137" s="33"/>
+      <c r="Z137" s="33"/>
+      <c r="AA137" s="33"/>
+      <c r="AB137" s="33"/>
+      <c r="AC137" s="33"/>
+      <c r="AD137" s="33"/>
+      <c r="AE137" s="33"/>
+      <c r="AF137" s="33"/>
+      <c r="AG137" s="33"/>
+      <c r="AH137" s="33"/>
+      <c r="AI137" s="33"/>
+    </row>
+    <row r="138" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="38">
+        <v>137</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>738</v>
+      </c>
+      <c r="C138" s="30">
+        <v>1</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E138" s="32">
+        <v>42882</v>
+      </c>
+      <c r="F138" s="32">
+        <v>43067</v>
+      </c>
+      <c r="G138" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H138" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I138" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="K138" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L138" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="M138" s="33"/>
+      <c r="N138" s="33"/>
+      <c r="O138" s="33"/>
+      <c r="P138" s="33"/>
+      <c r="Q138" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R138" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S138" s="33"/>
+      <c r="T138" s="33"/>
+      <c r="U138" s="33"/>
+      <c r="V138" s="33"/>
+      <c r="W138" s="33"/>
+      <c r="X138" s="33"/>
+      <c r="Y138" s="33"/>
+      <c r="Z138" s="33"/>
+      <c r="AA138" s="33"/>
+      <c r="AB138" s="33"/>
+      <c r="AC138" s="33"/>
+      <c r="AD138" s="33"/>
+      <c r="AE138" s="33"/>
+      <c r="AF138" s="33"/>
+      <c r="AG138" s="33"/>
+      <c r="AH138" s="33"/>
+      <c r="AI138" s="33"/>
+    </row>
+    <row r="139" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="38">
+        <v>138</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="C139" s="30">
+        <v>1</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="E139" s="32">
+        <v>42514</v>
+      </c>
+      <c r="F139" s="32">
+        <v>42584</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="H139" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="I139" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="K139" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="L139" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="M139" s="33"/>
+      <c r="N139" s="33"/>
+      <c r="O139" s="33"/>
+      <c r="P139" s="33"/>
+      <c r="Q139" s="33"/>
+      <c r="R139" s="33"/>
+      <c r="S139" s="33"/>
+      <c r="T139" s="33"/>
+      <c r="U139" s="33"/>
+      <c r="V139" s="33"/>
+      <c r="W139" s="33"/>
+      <c r="X139" s="33"/>
+      <c r="Y139" s="33"/>
+      <c r="Z139" s="33"/>
+      <c r="AA139" s="33"/>
+      <c r="AB139" s="33"/>
+      <c r="AC139" s="33"/>
+      <c r="AD139" s="33"/>
+      <c r="AE139" s="33"/>
+      <c r="AF139" s="33"/>
+      <c r="AG139" s="33"/>
+      <c r="AH139" s="33"/>
+      <c r="AI139" s="33"/>
+    </row>
+    <row r="140" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="38">
+        <v>139</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="C140" s="30">
+        <v>1</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="E140" s="32">
+        <v>42514</v>
+      </c>
+      <c r="F140" s="32">
+        <v>42747</v>
+      </c>
+      <c r="G140" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H140" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I140" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="K140" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="L140" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="M140" s="33"/>
+      <c r="N140" s="33"/>
+      <c r="O140" s="33"/>
+      <c r="P140" s="33"/>
+      <c r="Q140" s="33"/>
+      <c r="R140" s="33"/>
+      <c r="S140" s="33"/>
+      <c r="T140" s="33"/>
+      <c r="U140" s="33"/>
+      <c r="V140" s="33"/>
+      <c r="W140" s="33"/>
+      <c r="X140" s="33"/>
+      <c r="Y140" s="33"/>
+      <c r="Z140" s="33"/>
+      <c r="AA140" s="33"/>
+      <c r="AB140" s="33"/>
+      <c r="AC140" s="33"/>
+      <c r="AD140" s="33"/>
+      <c r="AE140" s="33"/>
+      <c r="AF140" s="33"/>
+      <c r="AG140" s="33"/>
+      <c r="AH140" s="33"/>
+      <c r="AI140" s="33"/>
+    </row>
+    <row r="141" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="38">
+        <v>140</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="C141" s="33">
+        <v>1</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E141" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F141" s="35">
+        <v>42537</v>
+      </c>
+      <c r="G141" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H134" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="I134" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J134" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K134" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L134" s="26" t="s">
-        <v>680</v>
-      </c>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="P134" s="11"/>
-      <c r="Q134" s="26" t="s">
+      <c r="H141" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I141" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="K141" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="L141" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="P141" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q141" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R134" s="26" t="s">
+      <c r="R141" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="S141" s="33"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
+      <c r="V141" s="33"/>
+      <c r="W141" s="33"/>
+      <c r="X141" s="33"/>
+      <c r="Y141" s="33"/>
+      <c r="Z141" s="33"/>
+      <c r="AA141" s="33"/>
+      <c r="AB141" s="33"/>
+      <c r="AC141" s="33"/>
+      <c r="AD141" s="33"/>
+      <c r="AE141" s="33"/>
+      <c r="AF141" s="33"/>
+      <c r="AG141" s="33"/>
+      <c r="AH141" s="33"/>
+      <c r="AI141" s="33"/>
+    </row>
+    <row r="142" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="38">
+        <v>141</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="C142" s="33">
+        <v>1</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E142" s="32">
+        <v>42654</v>
+      </c>
+      <c r="F142" s="35">
+        <v>42751</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H142" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="I142" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="K142" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="L142" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="M142" s="33"/>
+      <c r="N142" s="33"/>
+      <c r="O142" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="P142" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q142" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R142" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="S142" s="33"/>
+      <c r="T142" s="33"/>
+      <c r="U142" s="33"/>
+      <c r="V142" s="33"/>
+      <c r="W142" s="33"/>
+      <c r="X142" s="33"/>
+      <c r="Y142" s="33"/>
+      <c r="Z142" s="33"/>
+      <c r="AA142" s="33"/>
+      <c r="AB142" s="33"/>
+      <c r="AC142" s="33"/>
+      <c r="AD142" s="33"/>
+      <c r="AE142" s="33"/>
+      <c r="AF142" s="33"/>
+      <c r="AG142" s="33"/>
+      <c r="AH142" s="33"/>
+      <c r="AI142" s="33"/>
+    </row>
+    <row r="143" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="38">
+        <v>142</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="C143" s="33">
+        <v>1</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E143" s="32">
+        <v>42675</v>
+      </c>
+      <c r="F143" s="35">
+        <v>42767</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H143" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I143" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J143" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="K143" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="L143" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="M143" s="33"/>
+      <c r="N143" s="33"/>
+      <c r="O143" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="P143" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q143" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R143" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="S143" s="33"/>
+      <c r="T143" s="33"/>
+      <c r="U143" s="33"/>
+      <c r="V143" s="33"/>
+      <c r="W143" s="33"/>
+      <c r="X143" s="33"/>
+      <c r="Y143" s="33"/>
+      <c r="Z143" s="33"/>
+      <c r="AA143" s="33"/>
+      <c r="AB143" s="33"/>
+      <c r="AC143" s="33"/>
+      <c r="AD143" s="33"/>
+      <c r="AE143" s="33"/>
+      <c r="AF143" s="33"/>
+      <c r="AG143" s="33"/>
+      <c r="AH143" s="33"/>
+      <c r="AI143" s="33"/>
+    </row>
+    <row r="144" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="38">
+        <v>143</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>739</v>
+      </c>
+      <c r="C144" s="33">
+        <v>1</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="E144" s="32">
+        <v>42659</v>
+      </c>
+      <c r="F144" s="35">
+        <v>42747</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I144" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="M144" s="33"/>
+      <c r="N144" s="33"/>
+      <c r="O144" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="P144" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q144" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R144" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="S134" s="11"/>
-      <c r="T134" s="11"/>
-      <c r="U134" s="11"/>
-      <c r="V134" s="11"/>
-      <c r="W134" s="11"/>
-      <c r="X134" s="11"/>
-      <c r="Y134" s="11"/>
-      <c r="Z134" s="11"/>
-      <c r="AA134" s="11"/>
-      <c r="AB134" s="11"/>
-      <c r="AC134" s="11"/>
-      <c r="AD134" s="11"/>
-      <c r="AE134" s="11"/>
-      <c r="AF134" s="11"/>
-      <c r="AG134" s="11"/>
-      <c r="AH134" s="11"/>
-      <c r="AI134" s="11"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="5">
-        <v>134.0</v>
-      </c>
-      <c r="B135" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C135" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E135" s="30">
-        <v>42502.0</v>
-      </c>
-      <c r="F135" s="30">
-        <v>42606.0</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="H135" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I135" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J135" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="K135" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L135" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
-      <c r="O135" s="26" t="s">
-        <v>685</v>
-      </c>
-      <c r="P135" s="11"/>
-      <c r="Q135" s="26" t="s">
+      <c r="S144" s="33"/>
+      <c r="T144" s="33"/>
+      <c r="U144" s="33"/>
+      <c r="V144" s="33"/>
+      <c r="W144" s="33"/>
+      <c r="X144" s="33"/>
+      <c r="Y144" s="33"/>
+      <c r="Z144" s="33"/>
+      <c r="AA144" s="33"/>
+      <c r="AB144" s="33"/>
+      <c r="AC144" s="33"/>
+      <c r="AD144" s="33"/>
+      <c r="AE144" s="33"/>
+      <c r="AF144" s="33"/>
+      <c r="AG144" s="33"/>
+      <c r="AH144" s="33"/>
+      <c r="AI144" s="33"/>
+    </row>
+    <row r="145" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145" s="38">
+        <v>144</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>740</v>
+      </c>
+      <c r="C145" s="33">
+        <v>1</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="E145" s="32">
+        <v>42689</v>
+      </c>
+      <c r="F145" s="35">
+        <v>42856</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="H145" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I145" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="K145" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="M145" s="33"/>
+      <c r="N145" s="33"/>
+      <c r="O145" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="P145" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q145" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R145" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R135" s="26" t="s">
+      <c r="S145" s="33"/>
+      <c r="T145" s="33"/>
+      <c r="U145" s="33"/>
+      <c r="V145" s="33"/>
+      <c r="W145" s="33"/>
+      <c r="X145" s="33"/>
+      <c r="Y145" s="33"/>
+      <c r="Z145" s="33"/>
+      <c r="AA145" s="33"/>
+      <c r="AB145" s="33"/>
+      <c r="AC145" s="33"/>
+      <c r="AD145" s="33"/>
+      <c r="AE145" s="33"/>
+      <c r="AF145" s="33"/>
+      <c r="AG145" s="33"/>
+      <c r="AH145" s="33"/>
+      <c r="AI145" s="33"/>
+    </row>
+    <row r="146" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="38">
+        <v>145</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>741</v>
+      </c>
+      <c r="C146" s="33">
+        <v>1</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E146" s="32">
+        <v>42529</v>
+      </c>
+      <c r="F146" s="36">
+        <v>42727</v>
+      </c>
+      <c r="G146" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="H146" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="I146" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J146" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="K146" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="L146" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33"/>
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
+      <c r="Q146" s="33"/>
+      <c r="R146" s="33"/>
+      <c r="S146" s="33"/>
+      <c r="T146" s="33"/>
+      <c r="U146" s="33"/>
+      <c r="V146" s="33"/>
+      <c r="W146" s="33"/>
+      <c r="X146" s="33"/>
+      <c r="Y146" s="33"/>
+      <c r="Z146" s="33"/>
+      <c r="AA146" s="33"/>
+      <c r="AB146" s="33"/>
+      <c r="AC146" s="33"/>
+      <c r="AD146" s="33"/>
+      <c r="AE146" s="33"/>
+      <c r="AF146" s="33"/>
+      <c r="AG146" s="33"/>
+      <c r="AH146" s="33"/>
+      <c r="AI146" s="33"/>
+    </row>
+    <row r="147" spans="1:35" s="34" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147" s="38">
+        <v>146</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="C147" s="33">
+        <v>1</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="32">
+        <v>42471</v>
+      </c>
+      <c r="F147" s="32">
+        <v>42556</v>
+      </c>
+      <c r="G147" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="I147" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="J147" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K147" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L147" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="M147" s="33"/>
+      <c r="N147" s="33"/>
+      <c r="O147" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="P147" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q147" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="S135" s="11"/>
-      <c r="T135" s="11"/>
-      <c r="U135" s="11"/>
-      <c r="V135" s="11"/>
-      <c r="W135" s="11"/>
-      <c r="X135" s="11"/>
-      <c r="Y135" s="11"/>
-      <c r="Z135" s="11"/>
-      <c r="AA135" s="11"/>
-      <c r="AB135" s="11"/>
-      <c r="AC135" s="11"/>
-      <c r="AD135" s="11"/>
-      <c r="AE135" s="11"/>
-      <c r="AF135" s="11"/>
-      <c r="AG135" s="11"/>
-      <c r="AH135" s="11"/>
-      <c r="AI135" s="11"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="5">
-        <v>135.0</v>
-      </c>
-      <c r="B136" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C136" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E136" s="30">
-        <v>42759.0</v>
-      </c>
-      <c r="F136" s="30">
-        <v>42814.0</v>
-      </c>
-      <c r="G136" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="H136" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I136" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J136" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K136" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L136" s="26" t="s">
-        <v>687</v>
-      </c>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R136" s="26" t="s">
+      <c r="R147" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="U136" s="11"/>
-      <c r="V136" s="11"/>
-      <c r="W136" s="11"/>
-      <c r="X136" s="11"/>
-      <c r="Y136" s="11"/>
-      <c r="Z136" s="11"/>
-      <c r="AA136" s="11"/>
-      <c r="AB136" s="11"/>
-      <c r="AC136" s="11"/>
-      <c r="AD136" s="11"/>
-      <c r="AE136" s="11"/>
-      <c r="AF136" s="11"/>
-      <c r="AG136" s="11"/>
-      <c r="AH136" s="11"/>
-      <c r="AI136" s="11"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="5">
-        <v>136.0</v>
-      </c>
-      <c r="B137" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C137" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E137" s="30">
-        <v>42793.0</v>
-      </c>
-      <c r="F137" s="30">
-        <v>42927.0</v>
-      </c>
-      <c r="G137" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="H137" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="I137" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J137" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="K137" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="L137" s="26" t="s">
-        <v>691</v>
-      </c>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
-      <c r="O137" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="P137" s="11"/>
-      <c r="Q137" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R137" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="S137" s="11"/>
-      <c r="T137" s="11"/>
-      <c r="U137" s="11"/>
-      <c r="V137" s="11"/>
-      <c r="W137" s="11"/>
-      <c r="X137" s="11"/>
-      <c r="Y137" s="11"/>
-      <c r="Z137" s="11"/>
-      <c r="AA137" s="11"/>
-      <c r="AB137" s="11"/>
-      <c r="AC137" s="11"/>
-      <c r="AD137" s="11"/>
-      <c r="AE137" s="11"/>
-      <c r="AF137" s="11"/>
-      <c r="AG137" s="11"/>
-      <c r="AH137" s="11"/>
-      <c r="AI137" s="11"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="5">
-        <v>137.0</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C138" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E138" s="30">
-        <v>42882.0</v>
-      </c>
-      <c r="F138" s="30">
-        <v>43067.0</v>
-      </c>
-      <c r="G138" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H138" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I138" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J138" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="K138" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="L138" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11"/>
-      <c r="O138" s="11"/>
-      <c r="P138" s="11"/>
-      <c r="Q138" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R138" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="S138" s="11"/>
-      <c r="T138" s="11"/>
-      <c r="U138" s="11"/>
-      <c r="V138" s="11"/>
-      <c r="W138" s="11"/>
-      <c r="X138" s="11"/>
-      <c r="Y138" s="11"/>
-      <c r="Z138" s="11"/>
-      <c r="AA138" s="11"/>
-      <c r="AB138" s="11"/>
-      <c r="AC138" s="11"/>
-      <c r="AD138" s="11"/>
-      <c r="AE138" s="11"/>
-      <c r="AF138" s="11"/>
-      <c r="AG138" s="11"/>
-      <c r="AH138" s="11"/>
-      <c r="AI138" s="11"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="5">
-        <v>138.0</v>
-      </c>
-      <c r="B139" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="C139" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="E139" s="30">
-        <v>42514.0</v>
-      </c>
-      <c r="F139" s="30">
-        <v>42584.0</v>
-      </c>
-      <c r="G139" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="H139" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="I139" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J139" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="K139" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="L139" s="26" t="s">
-        <v>699</v>
-      </c>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-      <c r="S139" s="11"/>
-      <c r="T139" s="11"/>
-      <c r="U139" s="11"/>
-      <c r="V139" s="11"/>
-      <c r="W139" s="11"/>
-      <c r="X139" s="11"/>
-      <c r="Y139" s="11"/>
-      <c r="Z139" s="11"/>
-      <c r="AA139" s="11"/>
-      <c r="AB139" s="11"/>
-      <c r="AC139" s="11"/>
-      <c r="AD139" s="11"/>
-      <c r="AE139" s="11"/>
-      <c r="AF139" s="11"/>
-      <c r="AG139" s="11"/>
-      <c r="AH139" s="11"/>
-      <c r="AI139" s="11"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="5">
-        <v>139.0</v>
-      </c>
-      <c r="B140" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="C140" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="E140" s="30">
-        <v>42514.0</v>
-      </c>
-      <c r="F140" s="30">
-        <v>42747.0</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H140" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="I140" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J140" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="K140" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="L140" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
-      <c r="Q140" s="11"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
-      <c r="T140" s="11"/>
-      <c r="U140" s="11"/>
-      <c r="V140" s="11"/>
-      <c r="W140" s="11"/>
-      <c r="X140" s="11"/>
-      <c r="Y140" s="11"/>
-      <c r="Z140" s="11"/>
-      <c r="AA140" s="11"/>
-      <c r="AB140" s="11"/>
-      <c r="AC140" s="11"/>
-      <c r="AD140" s="11"/>
-      <c r="AE140" s="11"/>
-      <c r="AF140" s="11"/>
-      <c r="AG140" s="11"/>
-      <c r="AH140" s="11"/>
-      <c r="AI140" s="11"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="5">
-        <v>140.0</v>
-      </c>
-      <c r="B141" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="E141" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F141" s="31">
-        <v>42537.0</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H141" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I141" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J141" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="K141" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="L141" s="26" t="s">
-        <v>703</v>
-      </c>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="26" t="s">
-        <v>704</v>
-      </c>
-      <c r="P141" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q141" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R141" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="S141" s="11"/>
-      <c r="T141" s="11"/>
-      <c r="U141" s="11"/>
-      <c r="V141" s="11"/>
-      <c r="W141" s="11"/>
-      <c r="X141" s="11"/>
-      <c r="Y141" s="11"/>
-      <c r="Z141" s="11"/>
-      <c r="AA141" s="11"/>
-      <c r="AB141" s="11"/>
-      <c r="AC141" s="11"/>
-      <c r="AD141" s="11"/>
-      <c r="AE141" s="11"/>
-      <c r="AF141" s="11"/>
-      <c r="AG141" s="11"/>
-      <c r="AH141" s="11"/>
-      <c r="AI141" s="11"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="5">
-        <v>141.0</v>
-      </c>
-      <c r="B142" s="26" t="s">
-        <v>705</v>
-      </c>
-      <c r="C142" s="11"/>
-      <c r="D142" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="E142" s="30">
-        <v>42654.0</v>
-      </c>
-      <c r="F142" s="31">
-        <v>42751.0</v>
-      </c>
-      <c r="G142" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H142" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="I142" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J142" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="K142" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="L142" s="26" t="s">
-        <v>709</v>
-      </c>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="26" t="s">
-        <v>710</v>
-      </c>
-      <c r="P142" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q142" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R142" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="S142" s="11"/>
-      <c r="T142" s="11"/>
-      <c r="U142" s="11"/>
-      <c r="V142" s="11"/>
-      <c r="W142" s="11"/>
-      <c r="X142" s="11"/>
-      <c r="Y142" s="11"/>
-      <c r="Z142" s="11"/>
-      <c r="AA142" s="11"/>
-      <c r="AB142" s="11"/>
-      <c r="AC142" s="11"/>
-      <c r="AD142" s="11"/>
-      <c r="AE142" s="11"/>
-      <c r="AF142" s="11"/>
-      <c r="AG142" s="11"/>
-      <c r="AH142" s="11"/>
-      <c r="AI142" s="11"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="5">
-        <v>142.0</v>
-      </c>
-      <c r="B143" s="26" t="s">
-        <v>711</v>
-      </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="E143" s="30">
-        <v>42675.0</v>
-      </c>
-      <c r="F143" s="31">
-        <v>42767.0</v>
-      </c>
-      <c r="G143" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H143" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I143" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J143" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="K143" s="26" t="s">
-        <v>713</v>
-      </c>
-      <c r="L143" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="P143" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q143" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R143" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11"/>
-      <c r="U143" s="11"/>
-      <c r="V143" s="11"/>
-      <c r="W143" s="11"/>
-      <c r="X143" s="11"/>
-      <c r="Y143" s="11"/>
-      <c r="Z143" s="11"/>
-      <c r="AA143" s="11"/>
-      <c r="AB143" s="11"/>
-      <c r="AC143" s="11"/>
-      <c r="AD143" s="11"/>
-      <c r="AE143" s="11"/>
-      <c r="AF143" s="11"/>
-      <c r="AG143" s="11"/>
-      <c r="AH143" s="11"/>
-      <c r="AI143" s="11"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="5">
-        <v>143.0</v>
-      </c>
-      <c r="B144" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="E144" s="30">
-        <v>42659.0</v>
-      </c>
-      <c r="F144" s="31">
-        <v>42747.0</v>
-      </c>
-      <c r="G144" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H144" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I144" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J144" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K144" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L144" s="26" t="s">
-        <v>717</v>
-      </c>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="P144" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q144" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R144" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="S144" s="11"/>
-      <c r="T144" s="11"/>
-      <c r="U144" s="11"/>
-      <c r="V144" s="11"/>
-      <c r="W144" s="11"/>
-      <c r="X144" s="11"/>
-      <c r="Y144" s="11"/>
-      <c r="Z144" s="11"/>
-      <c r="AA144" s="11"/>
-      <c r="AB144" s="11"/>
-      <c r="AC144" s="11"/>
-      <c r="AD144" s="11"/>
-      <c r="AE144" s="11"/>
-      <c r="AF144" s="11"/>
-      <c r="AG144" s="11"/>
-      <c r="AH144" s="11"/>
-      <c r="AI144" s="11"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="5">
-        <v>144.0</v>
-      </c>
-      <c r="B145" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="E145" s="30">
-        <v>42689.0</v>
-      </c>
-      <c r="F145" s="31">
-        <v>42856.0</v>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="H145" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I145" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J145" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="K145" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L145" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="P145" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q145" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R145" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="S145" s="11"/>
-      <c r="T145" s="11"/>
-      <c r="U145" s="11"/>
-      <c r="V145" s="11"/>
-      <c r="W145" s="11"/>
-      <c r="X145" s="11"/>
-      <c r="Y145" s="11"/>
-      <c r="Z145" s="11"/>
-      <c r="AA145" s="11"/>
-      <c r="AB145" s="11"/>
-      <c r="AC145" s="11"/>
-      <c r="AD145" s="11"/>
-      <c r="AE145" s="11"/>
-      <c r="AF145" s="11"/>
-      <c r="AG145" s="11"/>
-      <c r="AH145" s="11"/>
-      <c r="AI145" s="11"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="5">
-        <v>145.0</v>
-      </c>
-      <c r="B146" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="E146" s="30">
-        <v>42529.0</v>
-      </c>
-      <c r="F146" s="32">
-        <v>42727.0</v>
-      </c>
-      <c r="G146" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="H146" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="I146" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="J146" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="K146" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="L146" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="M146" s="11"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
-      <c r="P146" s="11"/>
-      <c r="Q146" s="11"/>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
-      <c r="T146" s="11"/>
-      <c r="U146" s="11"/>
-      <c r="V146" s="11"/>
-      <c r="W146" s="11"/>
-      <c r="X146" s="11"/>
-      <c r="Y146" s="11"/>
-      <c r="Z146" s="11"/>
-      <c r="AA146" s="11"/>
-      <c r="AB146" s="11"/>
-      <c r="AC146" s="11"/>
-      <c r="AD146" s="11"/>
-      <c r="AE146" s="11"/>
-      <c r="AF146" s="11"/>
-      <c r="AG146" s="11"/>
-      <c r="AH146" s="11"/>
-      <c r="AI146" s="11"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="5">
-        <v>146.0</v>
-      </c>
-      <c r="B147" s="26" t="s">
-        <v>727</v>
-      </c>
-      <c r="C147" s="11"/>
-      <c r="D147" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="E147" s="30">
-        <v>42471.0</v>
-      </c>
-      <c r="F147" s="30">
-        <v>42556.0</v>
-      </c>
-      <c r="G147" s="26" t="s">
+      <c r="S147" s="33"/>
+      <c r="T147" s="33"/>
+      <c r="U147" s="33"/>
+      <c r="V147" s="33"/>
+      <c r="W147" s="33"/>
+      <c r="X147" s="33"/>
+      <c r="Y147" s="33"/>
+      <c r="Z147" s="33"/>
+      <c r="AA147" s="33"/>
+      <c r="AB147" s="33"/>
+      <c r="AC147" s="33"/>
+      <c r="AD147" s="33"/>
+      <c r="AE147" s="33"/>
+      <c r="AF147" s="33"/>
+      <c r="AG147" s="33"/>
+      <c r="AH147" s="33"/>
+      <c r="AI147" s="33"/>
+    </row>
+    <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="39"/>
+    </row>
+    <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="63.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="H147" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>729</v>
       </c>
-      <c r="I147" s="26" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="J147" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K147" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="L147" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="P147" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q147" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R147" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11"/>
-      <c r="V147" s="11"/>
-      <c r="W147" s="11"/>
-      <c r="X147" s="11"/>
-      <c r="Y147" s="11"/>
-      <c r="Z147" s="11"/>
-      <c r="AA147" s="11"/>
-      <c r="AB147" s="11"/>
-      <c r="AC147" s="11"/>
-      <c r="AD147" s="11"/>
-      <c r="AE147" s="11"/>
-      <c r="AF147" s="11"/>
-      <c r="AG147" s="11"/>
-      <c r="AH147" s="11"/>
-      <c r="AI147" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>